--- a/public/preprocessing/@Faisal_Att.xlsx
+++ b/public/preprocessing/@Faisal_Att.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17044</v>
+        <v>27813</v>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>perlu perhatian serius soal tambang emas ini</t>
+          <t>rt gus ketum satu ansor dadirejo bagelen panen raya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['perlu', 'perhatian', 'serius', 'soal', 'tambang', 'emas', 'ini']</t>
+          <t>['rt', 'gus', 'ketum', 'satu', 'ansor', 'dadirejo', 'bagelen', 'panen', 'raya']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'gus', 'ketua, umum', 'satu', 'ansor', 'dadirejo', 'bagelen', 'panen', 'raya']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['perhatian', 'serius', 'tambang', 'emas']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['perhati', 'serius', 'tambang', 'emas']</t>
+          <t>['gus', 'ketua, umum', 'ansor', 'dadirejo', 'bagelen', 'panen', 'raya']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['gus', 'ketua umum', 'ansor', 'dadirejo', 'bagelen', 'panen', 'raya']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17045</v>
+        <v>27814</v>
       </c>
       <c r="C3" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt ansor ingat sahabat nanti tanggal februari mengibarkan bendera merah putih nu ansor dan banser di rumah kan</t>
+          <t xml:space="preserve">rt ansor selamat hari suci nyepi dan tahun baru aka kepada umat hindu di indonesia semoga hyang widhi wasa tuhan yang </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'ingat', 'sahabat', 'nanti', 'tanggal', 'februari', 'mengibarkan', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'dan', 'banser', 'di', 'rumah', 'kan']</t>
+          <t>['rt', 'ansor', 'selamat', 'hari', 'suci', 'nyepi', 'dan', 'tahun', 'baru', 'aka', 'kepada', 'umat', 'hindu', 'di', 'indonesia', 'semoga', 'hyang', 'widhi', 'wasa', 'tuhan', 'yang']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'selamat', 'hari', 'suci', 'nyepi', 'dan', 'tahun', 'baru', 'aka', 'kepada', 'umat', 'hindu', 'di', 'indonesia', 'semoga', 'hyang', 'widhi', 'wasa', 'tuhan', 'yang']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['ansor', 'sahabat', 'tanggal', 'februari', 'mengibarkan', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'banser', 'rumah']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['ansor', 'sahabat', 'tanggal', 'februari', 'kibar', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'banser', 'rumah']</t>
+          <t>['ansor', 'selamat', 'suci', 'nyepi', 'aka', 'umat', 'hindu', 'indonesia', 'semoga', 'hyang', 'widhi', 'wasa', 'tuhan']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['ansor', 'selamat', 'suci', 'nyepi', 'aka', 'umat', 'hindu', 'indonesia', 'moga', 'hyang', 'widhi', 'wasa', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17046</v>
+        <v>27815</v>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt sebab kami adalah banser</t>
+          <t>aspirasi penolakan dan bahaya tambang perlu diperhatikan oleh pemerintah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'sebab', 'kami', 'adalah', 'banser']</t>
+          <t>['aspirasi', 'penolakan', 'dan', 'bahaya', 'tambang', 'perlu', 'diperhatikan', 'oleh', 'pemerintah']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['aspirasi', 'penolakan', 'dan', 'bahaya', 'tambang', 'perlu', 'diperhatikan', 'oleh', 'pemerintah']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['banser']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['banser']</t>
+          <t>['aspirasi', 'penolakan', 'bahaya', 'tambang', 'diperhatikan', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['aspirasi', 'tolak', 'bahaya', 'tambang', 'perhati', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17047</v>
+        <v>27816</v>
       </c>
       <c r="C5" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt sebab kami adalah banser</t>
+          <t xml:space="preserve">rt pagi tadi saya terbang ke bima bersama gubernur ntb zulkieflimansyah dan walikota bima sahabat lamaku lutfi iskandar </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'sebab', 'kami', 'adalah', 'banser']</t>
+          <t>['rt', 'pagi', 'tadi', 'saya', 'terbang', 'ke', 'bima', 'bersama', 'gubernur', 'ntb', 'zulkieflimansyah', 'dan', 'walikota', 'bima', 'sahabat', 'lamaku', 'lutfi', 'iskandar']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'pagi', 'tadi', 'saya', 'terbang', 'ke', 'bima', 'bersama', 'gubernur', 'ntb', 'zulkieflimansyah', 'dan', 'wali, kota', 'bima', 'sahabat', 'lamaku', 'lutfi', 'iskandar']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['banser']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['banser']</t>
+          <t>['pagi', 'terbang', 'bima', 'gubernur', 'ntb', 'zulkieflimansyah', 'wali, kota', 'bima', 'sahabat', 'lamaku', 'lutfi', 'iskandar']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['pagi', 'terbang', 'bima', 'gubernur', 'ntb', 'zulkieflimansyah', 'wali kota', 'bima', 'sahabat', 'lama', 'lutfi', 'iskandar']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17048</v>
+        <v>27817</v>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt tauhid pagi ini ansor gp ansor jakpus banser tanah abang bersama ppsu pasukan oranye melakukan operasi sisir sampah</t>
+          <t xml:space="preserve">rt selamat memperingati dan meneladani isra miraj  semoga kita senantiasa diberi rahmat dan kekuatan oleh allah </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'tauhid', 'pagi', 'ini', 'ansor', 'gp', 'ansor', 'jakpus', 'banser', 'tanah', 'abang', 'bersama', 'ppsu', 'pasukan', 'oranye', 'melakukan', 'operasi', 'sisir', 'sampah']</t>
+          <t>['rt', 'selamat', 'memperingati', 'dan', 'meneladani', 'isra', 'miraj', 'semoga', 'kita', 'senantiasa', 'diberi', 'rahmat', 'dan', 'kekuatan', 'oleh', 'allah']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'memperingati', 'dan', 'meneladani', 'isra', 'miraj', 'semoga', 'kita', 'senantiasa', 'diberi', 'rahmat', 'dan', 'kekuatan', 'oleh', 'allah']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['tauhid', 'pagi', 'ansor', 'gp', 'ansor', 'jakpus', 'banser', 'tanah', 'abang', 'ppsu', 'pasukan', 'oranye', 'operasi', 'sisir', 'sampah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['tauhid', 'pagi', 'ansor', 'gp', 'ansor', 'jakpus', 'banser', 'tanah', 'abang', 'ppsu', 'pasu', 'oranye', 'operasi', 'sisir', 'sampah']</t>
+          <t>['selamat', 'memperingati', 'meneladani', 'isra', 'miraj', 'semoga', 'senantiasa', 'rahmat', 'kekuatan', 'allah']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['selamat', 'ingat', 'teladan', 'isra', 'miraj', 'moga', 'senantiasa', 'rahmat', 'kuat', 'allah']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17049</v>
+        <v>27818</v>
       </c>
       <c r="C7" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt lima tahun dibangun bendungan tapin dengan luas genangan ha di kalimantan selatan telah selesai saya meresmikannya kemari</t>
+          <t xml:space="preserve">rt malam ini diselenggarakan peringatan isra miraj nabi muhammad saw tingkat kenegaraan tahun   dengan tema </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'ha', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmikannya', 'kemari']</t>
+          <t>['rt', 'malam', 'ini', 'diselenggarakan', 'peringatan', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tingkat', 'kenegaraan', 'tahun', 'dengan', 'tema']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'malam', 'ini', 'diselenggarakan', 'peringatan', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tingkat', 'kenegaraan', 'tahun', 'dengan', 'tema']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['dibangun', 'bendungan', 'tapin', 'luas', 'genangan', 'ha', 'kalimantan', 'selatan', 'selesai', 'meresmikannya', 'kemari']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['bangun', 'bendung', 'tapin', 'luas', 'genang', 'ha', 'kalimantan', 'selatan', 'selesai', 'resmi', 'kemari']</t>
+          <t>['malam', 'diselenggarakan', 'peringatan', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tingkat', 'kenegaraan', 'tema']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['malam', 'selenggara', 'ingat', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tingkat', 'negara', 'tema']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17050</v>
+        <v>27819</v>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt ansor jumat call di bulan baik ini marilah kita memperbanyak shalawat untuk nabi kita dengan mengingat petunjuk dan ajaran</t>
+          <t>rt acara dilakukan secara hybrid dan wakil presiden ri marufamin berkenan memberikan sambutan secara virtual semen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'jumat', 'call', 'di', 'bulan', 'baik', 'ini', 'marilah', 'kita', 'memperbanyak', 'shalawat', 'untuk', 'nabi', 'kita', 'dengan', 'mengingat', 'petunjuk', 'dan', 'ajaran']</t>
+          <t>['rt', 'acara', 'dilakukan', 'secara', 'hybrid', 'dan', 'wakil', 'presiden', 'ri', 'marufamin', 'berkenan', 'memberikan', 'sambutan', 'secara', 'virtual', 'semen']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'acara', 'dilakukan', 'secara', 'hybrid', 'dan', 'wakil', 'presiden', 'ri', 'marufamin', 'berkenan', 'memberikan', 'sambutan', 'secara', 'virtual', 'semen']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['ansor', 'jumat', 'call', 'marilah', 'memperbanyak', 'shalawat', 'nabi', 'petunjuk', 'ajaran']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['ansor', 'jumat', 'call', 'mari', 'banyak', 'shalawat', 'nabi', 'tunjuk', 'ajar']</t>
+          <t>['acara', 'hybrid', 'wakil', 'presiden', 'ri', 'marufamin', 'berkenan', 'sambutan', 'virtual', 'semen']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['acara', 'hybrid', 'wakil', 'presiden', 'ri', 'marufamin', 'kenan', 'sambut', 'virtual', 'semen']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17051</v>
+        <v>27820</v>
       </c>
       <c r="C9" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt terima kasih kepada ri telah menjadi institusi yang memberikan kontribusi terbaik untuk radio elshinta</t>
+          <t>rt berdiskusi singkat dengan ustadz shamsi ali pemimpin spiritual pusat muslim jamaika new york cara pandang keagamaann</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'kepada', 'ri', 'telah', 'menjadi', 'institusi', 'yang', 'memberikan', 'kontribusi', 'terbaik', 'untuk', 'radio', 'elshinta']</t>
+          <t>['rt', 'berdiskusi', 'singkat', 'dengan', 'ustadz', 'shamsi', 'ali', 'pemimpin', 'spiritual', 'pusat', 'muslim', 'jamaika', 'new', 'york', 'cara', 'pandang', 'keagamaann']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'berdiskusi', 'singkat', 'dengan', 'ustaz', 'shamsi', 'ali', 'pemimpin', 'spiritual', 'pusat', 'muslim', 'jamaika', 'new', 'york', 'cara', 'pandang', 'keagamaann']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ri', 'institusi', 'kontribusi', 'terbaik', 'radio', 'elshinta']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ri', 'institusi', 'kontribusi', 'baik', 'radio', 'elshinta']</t>
+          <t>['berdiskusi', 'singkat', 'ustaz', 'shamsi', 'ali', 'pemimpin', 'spiritual', 'pusat', 'muslim', 'jamaika', 'new', 'york', 'pandang', 'keagamaann']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['diskus', 'singkat', 'ustaz', 'shamsi', 'ali', 'pimpin', 'spiritual', 'pusat', 'muslim', 'jamaika', 'new', 'york', 'pandang', 'keagamaann']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17052</v>
+        <v>27821</v>
       </c>
       <c r="C10" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt diperlukan ikhtiarikhtiar untuk menghadapi pandemi ini saya menginstruksikan jajaran ri melalui instruksi men</t>
+          <t>rt ansor tukar cinderamata dari gp ansor untuk dubes swedia dan uni eropa oleh waketum gp ansor gus aam ketua lbh ansor bib qo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'diperlukan', 'ikhtiarikhtiar', 'untuk', 'menghadapi', 'pandemi', 'ini', 'saya', 'menginstruksikan', 'jajaran', 'ri', 'melalui', 'instruksi', 'men']</t>
+          <t>['rt', 'ansor', 'tukar', 'cinderamata', 'dari', 'gp', 'ansor', 'untuk', 'dubes', 'swedia', 'dan', 'uni', 'eropa', 'oleh', 'waketum', 'gp', 'ansor', 'gus', 'aam', 'ketua', 'lbh', 'ansor', 'bib', 'qo']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'tukar', 'cinderamata', 'dari', 'gp', 'ansor', 'untuk', 'duta, besar', 'swedia', 'dan', 'uni', 'eropa', 'oleh', 'wakil, ketua, umum', 'gp', 'ansor', 'gus', 'aam', 'ketua', 'lebih', 'ansor', 'bib', 'kok']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['ikhtiarikhtiar', 'menghadapi', 'pandemi', 'menginstruksikan', 'jajaran', 'ri', 'instruksi', 'men']</t>
+          <t>&lt;FreqDist with 20 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ikhtiarikhtiar', 'hadap', 'pandemi', 'instruksi', 'jajar', 'ri', 'instruksi', 'men']</t>
+          <t>['ansor', 'tukar', 'cinderamata', 'gp', 'ansor', 'duta, besar', 'swedia', 'uni', 'eropa', 'wakil, ketua, umum', 'gp', 'ansor', 'gus', 'aam', 'ketua', 'ansor', 'bib']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['ansor', 'tukar', 'cinderamata', 'gp', 'ansor', 'duta besar', 'swedia', 'uni', 'eropa', 'wakil ketua umum', 'gp', 'ansor', 'gus', 'aam', 'ketua', 'ansor', 'bib']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17053</v>
+        <v>27822</v>
       </c>
       <c r="C11" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>selamat dan sukses</t>
+          <t>rt ansor duta besar swedia dan uni eropa telah tiba di pp gp ansor untuk acara silaturahmi dengan ketua umum pp gp ansor dan lbh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['selamat', 'dan', 'sukses']</t>
+          <t>['rt', 'ansor', 'duta', 'besar', 'swedia', 'dan', 'uni', 'eropa', 'telah', 'tiba', 'di', 'pp', 'gp', 'ansor', 'untuk', 'acara', 'silaturahmi', 'dengan', 'ketua', 'umum', 'pp', 'gp', 'ansor', 'dan', 'lbh']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'duta', 'besar', 'swedia', 'dan', 'uni', 'eropa', 'telah', 'tiba', 'di', 'pp', 'gp', 'ansor', 'untuk', 'acara', 'silaturahmi', 'dengan', 'ketua', 'umum', 'pp', 'gp', 'ansor', 'dan', 'lebih']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['selamat', 'sukses']</t>
+          <t>&lt;FreqDist with 20 samples and 25 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['selamat', 'sukses']</t>
+          <t>['ansor', 'duta', 'swedia', 'uni', 'eropa', 'pp', 'gp', 'ansor', 'acara', 'silaturahmi', 'ketua', 'pp', 'gp', 'ansor']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ansor', 'duta', 'swedia', 'uni', 'eropa', 'pp', 'gp', 'ansor', 'acara', 'silaturahmi', 'ketua', 'pp', 'gp', 'ansor']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17054</v>
+        <v>27823</v>
       </c>
       <c r="C12" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt nashir semangat tak boleh luntur jutaan kader ansor banser memang sudah ada namun api pengkaderan tak boleh padam harus tet</t>
+          <t>rt ansor sebaikbaik kalian adalah yang paling baik kepada perempuan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'nashir', 'semangat', 'tak', 'boleh', 'luntur', 'jutaan', 'kader', 'ansor', 'banser', 'memang', 'sudah', 'ada', 'namun', 'api', 'pengkaderan', 'tak', 'boleh', 'padam', 'harus', 'tet']</t>
+          <t>['rt', 'ansor', 'sebaikbaik', 'kalian', 'adalah', 'yang', 'paling', 'baik', 'kepada', 'perempuan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'sebaikbaik', 'kalian', 'adalah', 'yang', 'paling', 'baik', 'kepada', 'perempuan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['nashir', 'semangat', 'luntur', 'jutaan', 'kader', 'ansor', 'banser', 'api', 'pengkaderan', 'padam', 'tet']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['nashir', 'semangat', 'luntur', 'juta', 'kader', 'ansor', 'banser', 'api', 'kader', 'padam', 'tet']</t>
+          <t>['ansor', 'sebaikbaik', 'perempuan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['ansor', 'sebaikbaik', 'perempuan']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17055</v>
+        <v>27824</v>
       </c>
       <c r="C13" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt nashir mantap banser makin mendunia hari ini ada dtd gp ansor taiwan yang bertempat di kota changwa diikuti sebanyak</t>
+          <t>rt masjid istiqlal dibawah kepengurusan prof kyai nazarudin umar ini memang luar biasa ada saja gagasan segar yg dimunculk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'nashir', 'mantap', 'banser', 'makin', 'mendunia', 'hari', 'ini', 'ada', 'dtd', 'gp', 'ansor', 'taiwan', 'yang', 'bertempat', 'di', 'kota', 'changwa', 'diikuti', 'sebanyak']</t>
+          <t>['rt', 'masjid', 'istiqlal', 'dibawah', 'kepengurusan', 'prof', 'kyai', 'nazarudin', 'umar', 'ini', 'memang', 'luar', 'biasa', 'ada', 'saja', 'gagasan', 'segar', 'yg', 'dimunculk']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'masjid', 'istiqlal', 'di, bawah', 'kepengurusan', 'prof', 'kiai', 'nazarudin', 'umar', 'ini', 'memang', 'luar', 'biasa', 'ada', 'saja', 'gagasan', 'segar', 'yang', 'dimunculk']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['nashir', 'mantap', 'banser', 'mendunia', 'dtd', 'gp', 'ansor', 'taiwan', 'bertempat', 'kota', 'changwa', 'diikuti']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['nashir', 'mantap', 'banser', 'dunia', 'dtd', 'gp', 'ansor', 'taiwan', 'tempat', 'kota', 'changwa', 'ikut']</t>
+          <t>['masjid', 'istiqlal', 'di, bawah', 'kepengurusan', 'prof', 'kiai', 'nazarudin', 'umar', 'gagasan', 'segar', 'dimunculk']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['masjid', 'istiqlal', 'di bawah', 'urus', 'prof', 'kiai', 'nazarudin', 'umar', 'gagas', 'segar', 'dimunculk']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17056</v>
+        <v>27825</v>
       </c>
       <c r="C14" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nashir selalu keren gp ansor</t>
+          <t xml:space="preserve">rt ikhtiar yang sudah dilakukan harus terus dipastikan jalan pandemi ini sudah turun secara tren penyebaran tapi bukan </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['nashir', 'selalu', 'keren', 'gp', 'ansor']</t>
+          <t>['rt', 'ikhtiar', 'yang', 'sudah', 'dilakukan', 'harus', 'terus', 'dipastikan', 'jalan', 'pandemi', 'ini', 'sudah', 'turun', 'secara', 'tren', 'penyebaran', 'tapi', 'bukan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'ikhtiar', 'yang', 'sudah', 'dilakukan', 'harus', 'terus', 'dipastikan', 'jalan', 'pandemi', 'ini', 'sudah', 'turun', 'secara', 'tren', 'penyebaran', 'tapi', 'bukan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['nashir', 'keren', 'gp', 'ansor']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['nashir', 'keren', 'gp', 'ansor']</t>
+          <t>['ikhtiar', 'jalan', 'pandemi', 'turun', 'tren', 'penyebaran']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['ikhtiar', 'jalan', 'pandemi', 'turun', 'tren', 'sebar']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17057</v>
+        <v>27826</v>
       </c>
       <c r="C15" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt ansor alhamdulillah adik wahyu yang viral ketika adzani pemakaman orangtuanya sampai menangis sekarang akan mondok sesua</t>
+          <t>alfaatehah</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'alhamdulillah', 'adik', 'wahyu', 'yang', 'viral', 'ketika', 'adzani', 'pemakaman', 'orangtuanya', 'sampai', 'menangis', 'sekarang', 'akan', 'mondok', 'sesua']</t>
+          <t>['alfaatehah']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['alfaatehah']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ansor', 'alhamdulillah', 'adik', 'wahyu', 'viral', 'adzani', 'pemakaman', 'orangtuanya', 'menangis', 'mondok', 'sesua']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ansor', 'alhamdulillah', 'adik', 'wahyu', 'viral', 'adzani', 'makam', 'orangtuanya', 'menang', 'mondok', 'sua']</t>
+          <t>['alfaatehah']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['alfaatehah']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,35 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17058</v>
+        <v>27827</v>
       </c>
       <c r="C16" t="n">
-        <v>212</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>rt penyegaran temlen bosen posting banser lanangan terus</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'penyegaran', 'temlen', 'bosen', 'posting', 'banser', 'lanangan', 'terus']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['penyegaran', 'temlen', 'bosen', 'posting', 'banser', 'lanangan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['segar', 'temlen', 'bosen', 'posting', 'banser', 'lanang']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17059</v>
+        <v>27828</v>
       </c>
       <c r="C17" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt densus akan segera sidak munarman dengan dugaan terorisme</t>
+          <t>perlu perhatian serius soal tambang emas ini</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'densus', 'akan', 'segera', 'sidak', 'munarman', 'dengan', 'dugaan', 'terorisme']</t>
+          <t>['perlu', 'perhatian', 'serius', 'soal', 'tambang', 'emas', 'ini']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['perlu', 'perhatian', 'serius', 'soal', 'tambang', 'emas', 'ini']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['densus', 'sidak', 'munarman', 'dugaan', 'terorisme']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['densus', 'sidak', 'munarman', 'duga', 'terorisme']</t>
+          <t>['perhatian', 'serius', 'tambang', 'emas']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['perhati', 'serius', 'tambang', 'emas']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17060</v>
+        <v>27829</v>
       </c>
       <c r="C18" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt nashir sejenak berdiri melihat kegembiraan yang tercipta diwajah anakanak korban bencana gempa majene mamuju terimakasih</t>
+          <t>rt ansor ingat sahabat nanti tanggal februari mengibarkan bendera merah putih nu ansor dan banser di rumah kan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'nashir', 'sejenak', 'berdiri', 'melihat', 'kegembiraan', 'yang', 'tercipta', 'diwajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terimakasih']</t>
+          <t>['rt', 'ansor', 'ingat', 'sahabat', 'nanti', 'tanggal', 'februari', 'mengibarkan', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'dan', 'banser', 'di', 'rumah', 'kan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'ingat', 'sahabat', 'nanti', 'tanggal', 'februari', 'mengibarkan', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'dan', 'barisan, serba, guna', 'di', 'rumah', 'kan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['nashir', 'berdiri', 'kegembiraan', 'tercipta', 'diwajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terimakasih']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['nashir', 'diri', 'gembira', 'cipta', 'wajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terimakasih']</t>
+          <t>['ansor', 'sahabat', 'tanggal', 'februari', 'mengibarkan', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'barisan, serba, guna', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ansor', 'sahabat', 'tanggal', 'februari', 'kibar', 'bendera', 'merah', 'putih', 'nu', 'ansor', 'baris serba guna', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17061</v>
+        <v>27830</v>
       </c>
       <c r="C19" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt ansor satuan koordinasi rayon satkoryon banser banyuputih cepat tanggap terjun langsung membantu korban banjir di dukuh man</t>
+          <t>rt sebab kami adalah banser</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'satuan', 'koordinasi', 'rayon', 'satkoryon', 'banser', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'membantu', 'korban', 'banjir', 'di', 'dukuh', 'man']</t>
+          <t>['rt', 'sebab', 'kami', 'adalah', 'banser']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'sebab', 'kami', 'adalah', 'barisan, serba, guna']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['ansor', 'satuan', 'koordinasi', 'rayon', 'satkoryon', 'banser', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'membantu', 'korban', 'banjir', 'dukuh', 'man']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['ansor', 'satu', 'koordinasi', 'rayon', 'satkoryon', 'banser', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'bantu', 'korban', 'banjir', 'dukuh', 'man']</t>
+          <t>['barisan, serba, guna']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['baris serba guna']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17062</v>
+        <v>27831</v>
       </c>
       <c r="C20" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt ansor selamat milad himpunan mahasiswa islam ke mengokohkan komitmen keislaman dan kebangsaan</t>
+          <t>rt sebab kami adalah banser</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'selamat', 'milad', 'himpunan', 'mahasiswa', 'islam', 'ke', 'mengokohkan', 'komitmen', 'keislaman', 'dan', 'kebangsaan']</t>
+          <t>['rt', 'sebab', 'kami', 'adalah', 'banser']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'sebab', 'kami', 'adalah', 'barisan, serba, guna']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['ansor', 'selamat', 'milad', 'himpunan', 'mahasiswa', 'islam', 'mengokohkan', 'komitmen', 'keislaman', 'kebangsaan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['ansor', 'selamat', 'milad', 'himpun', 'mahasiswa', 'islam', 'kokoh', 'komitmen', 'islam', 'bangsa']</t>
+          <t>['barisan, serba, guna']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['baris serba guna']</t>
         </is>
       </c>
     </row>
@@ -1159,30 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17063</v>
+        <v>27832</v>
       </c>
       <c r="C21" t="n">
-        <v>212</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>rt tauhid pagi ini ansor gp ansor jakpus banser tanah abang bersama ppsu pasukan oranye melakukan operasi sisir sampah</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'tauhid', 'pagi', 'ini', 'ansor', 'gp', 'ansor', 'jakpus', 'banser', 'tanah', 'abang', 'bersama', 'ppsu', 'pasukan', 'oranye', 'melakukan', 'operasi', 'sisir', 'sampah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'tauhid', 'pagi', 'ini', 'ansor', 'gp', 'ansor', 'jakpus', 'barisan, serba, guna', 'tanah', 'abang', 'bersama', 'ppsu', 'pasukan', 'oranye', 'melakukan', 'operasi', 'sisir', 'sampah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tauhid', 'pagi', 'ansor', 'gp', 'ansor', 'jakpus', 'barisan, serba, guna', 'tanah', 'abang', 'ppsu', 'pasukan', 'oranye', 'operasi', 'sisir', 'sampah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['tauhid', 'pagi', 'ansor', 'gp', 'ansor', 'jakpus', 'baris serba guna', 'tanah', 'abang', 'ppsu', 'pasu', 'oranye', 'operasi', 'sisir', 'sampah']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17064</v>
+        <v>27833</v>
       </c>
       <c r="C22" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt adab santri pada kyai</t>
+          <t>rt lima tahun dibangun bendungan tapin dengan luas genangan ha di kalimantan selatan telah selesai saya meresmikannya kemari</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'adab', 'santri', 'pada', 'kyai']</t>
+          <t>['rt', 'lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'ha', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmikannya', 'kemari']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'lima', 'tahun', 'dibangun', 'bendungan', 'tapin', 'dengan', 'luas', 'genangan', 'apa', 'di', 'kalimantan', 'selatan', 'telah', 'selesai', 'saya', 'meresmikannya', 'kemari']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['adab', 'santri', 'kyai']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['adab', 'santri', 'kyai']</t>
+          <t>['dibangun', 'bendungan', 'tapin', 'luas', 'genangan', 'kalimantan', 'selatan', 'selesai', 'meresmikannya', 'kemari']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['bangun', 'bendung', 'tapin', 'luas', 'genang', 'kalimantan', 'selatan', 'selesai', 'resmi', 'kemari']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17065</v>
+        <v>27834</v>
       </c>
       <c r="C23" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt selamat harlah nu ke</t>
+          <t>rt ansor jumat call di bulan baik ini marilah kita memperbanyak shalawat untuk nabi kita dengan mengingat petunjuk dan ajaran</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'harlah', 'nu', 'ke']</t>
+          <t>['rt', 'ansor', 'jumat', 'call', 'di', 'bulan', 'baik', 'ini', 'marilah', 'kita', 'memperbanyak', 'shalawat', 'untuk', 'nabi', 'kita', 'dengan', 'mengingat', 'petunjuk', 'dan', 'ajaran']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'jumat', 'call', 'di', 'bulan', 'baik', 'ini', 'marilah', 'kita', 'memperbanyak', 'selawat', 'untuk', 'nabi', 'kita', 'dengan', 'mengingat', 'petunjuk', 'dan', 'ajaran']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nu']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nu']</t>
+          <t>['ansor', 'jumat', 'call', 'marilah', 'memperbanyak', 'selawat', 'nabi', 'petunjuk', 'ajaran']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ansor', 'jumat', 'call', 'mari', 'banyak', 'selawat', 'nabi', 'tunjuk', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -1263,30 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17066</v>
+        <v>27835</v>
       </c>
       <c r="C24" t="n">
-        <v>212</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>rt terima kasih kepada ri telah menjadi institusi yang memberikan kontribusi terbaik untuk radio elshinta</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'terima', 'kasih', 'kepada', 'ri', 'telah', 'menjadi', 'institusi', 'yang', 'memberikan', 'kontribusi', 'terbaik', 'untuk', 'radio', 'elshinta']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'kepada', 'ri', 'telah', 'menjadi', 'institusi', 'yang', 'memberikan', 'kontribusi', 'terbaik', 'untuk', 'radio', 'elshinta']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['terima', 'kasih', 'ri', 'institusi', 'kontribusi', 'terbaik', 'radio', 'elshinta']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'ri', 'institusi', 'kontribusi', 'baik', 'radio', 'elshinta']</t>
         </is>
       </c>
     </row>
@@ -1295,30 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17067</v>
+        <v>27836</v>
       </c>
       <c r="C25" t="n">
-        <v>212</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>rt diperlukan ikhtiarikhtiar untuk menghadapi pandemi ini saya menginstruksikan jajaran ri melalui instruksi men</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'diperlukan', 'ikhtiarikhtiar', 'untuk', 'menghadapi', 'pandemi', 'ini', 'saya', 'menginstruksikan', 'jajaran', 'ri', 'melalui', 'instruksi', 'men']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'diperlukan', 'ikhtiarikhtiar', 'untuk', 'menghadapi', 'pandemi', 'ini', 'saya', 'menginstruksikan', 'jajaran', 'ri', 'melalui', 'instruksi', 'men']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ikhtiarikhtiar', 'menghadapi', 'pandemi', 'menginstruksikan', 'jajaran', 'ri', 'instruksi', 'men']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['ikhtiarikhtiar', 'hadap', 'pandemi', 'instruksi', 'jajar', 'ri', 'instruksi', 'men']</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17068</v>
+        <v>27837</v>
       </c>
       <c r="C26" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt dirs ya allah jang</t>
+          <t>selamat dan sukses</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'ya', 'allah', 'jang']</t>
+          <t>['selamat', 'dan', 'sukses']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['selamat', 'dan', 'sukses']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['dirs', 'allah', 'jang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['dirs', 'allah', 'jang']</t>
+          <t>['selamat', 'sukses']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['selamat', 'sukses']</t>
         </is>
       </c>
     </row>
@@ -1363,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17069</v>
+        <v>27838</v>
       </c>
       <c r="C27" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt masih seputar giat penanggulangan bencana oleh banser kali ini untuk menghindari jebolnya tanggul karena debit air </t>
+          <t>rt nashir semangat tak boleh luntur jutaan kader ansor banser memang sudah ada namun api pengkaderan tak boleh padam harus tet</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'masih', 'seputar', 'giat', 'penanggulangan', 'bencana', 'oleh', 'banser', 'kali', 'ini', 'untuk', 'menghindari', 'jebolnya', 'tanggul', 'karena', 'debit', 'air']</t>
+          <t>['rt', 'nashir', 'semangat', 'tak', 'boleh', 'luntur', 'jutaan', 'kader', 'ansor', 'banser', 'memang', 'sudah', 'ada', 'namun', 'api', 'pengkaderan', 'tak', 'boleh', 'padam', 'harus', 'tet']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'nashir', 'semangat', 'tak', 'boleh', 'luntur', 'jutaan', 'kader', 'ansor', 'barisan, serba, guna', 'memang', 'sudah', 'ada', 'namun', 'api', 'pengaderan', 'tak', 'boleh', 'padam', 'harus', 'tet']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['seputar', 'giat', 'penanggulangan', 'bencana', 'banser', 'kali', 'menghindari', 'jebolnya', 'tanggul', 'debit', 'air']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['putar', 'giat', 'tanggulang', 'bencana', 'banser', 'kali', 'hindar', 'jebol', 'tanggul', 'debit', 'air']</t>
+          <t>['nashir', 'semangat', 'luntur', 'jutaan', 'kader', 'ansor', 'barisan, serba, guna', 'api', 'pengaderan', 'padam', 'tet']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['nashir', 'semangat', 'luntur', 'juta', 'kader', 'ansor', 'baris serba guna', 'api', 'kader', 'padam', 'tet']</t>
         </is>
       </c>
     </row>
@@ -1399,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17070</v>
+        <v>27839</v>
       </c>
       <c r="C28" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt para kyai sepuh nusantara bertemu dengan laku istikharah dan karomah dari syaikh cholil bangkalan kyai nusantara merapat kepad</t>
+          <t>rt nashir mantap banser makin mendunia hari ini ada dtd gp ansor taiwan yang bertempat di kota changwa diikuti sebanyak</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'para', 'kyai', 'sepuh', 'nusantara', 'bertemu', 'dengan', 'laku', 'istikharah', 'dan', 'karomah', 'dari', 'syaikh', 'cholil', 'bangkalan', 'kyai', 'nusantara', 'merapat', 'kepad']</t>
+          <t>['rt', 'nashir', 'mantap', 'banser', 'makin', 'mendunia', 'hari', 'ini', 'ada', 'dtd', 'gp', 'ansor', 'taiwan', 'yang', 'bertempat', 'di', 'kota', 'changwa', 'diikuti', 'sebanyak']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'nashir', 'mantap', 'barisan, serba, guna', 'makin', 'mendunia', 'hari', 'ini', 'ada', 'dtd', 'gp', 'ansor', 'taiwan', 'yang', 'bertempat', 'di', 'kota', 'changwa', 'diikuti', 'sebanyak']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['kyai', 'sepuh', 'nusantara', 'bertemu', 'laku', 'istikharah', 'karomah', 'syaikh', 'cholil', 'bangkalan', 'kyai', 'nusantara', 'merapat', 'kepad']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['kyai', 'sepuh', 'nusantara', 'temu', 'laku', 'istikharah', 'karomah', 'syaikh', 'cholil', 'bangkal', 'kyai', 'nusantara', 'rapat', 'kepad']</t>
+          <t>['nashir', 'mantap', 'barisan, serba, guna', 'mendunia', 'dtd', 'gp', 'ansor', 'taiwan', 'bertempat', 'kota', 'changwa', 'diikuti']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['nashir', 'mantap', 'baris serba guna', 'dunia', 'dtd', 'gp', 'ansor', 'taiwan', 'tempat', 'kota', 'changwa', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17071</v>
+        <v>27840</v>
       </c>
       <c r="C29" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt pimpinan pusat muhammadiyah mengucapkan selamat harlah nahdlatul ulama ke dengan khidmah nu menyebarkan aswaja dan </t>
+          <t>nashir selalu keren gp ansor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'mengucapkan', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'dengan', 'khidmah', 'nu', 'menyebarkan', 'aswaja', 'dan']</t>
+          <t>['nashir', 'selalu', 'keren', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['nashir', 'selalu', 'keren', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['pimpinan', 'pusat', 'muhammadiyah', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'khidmah', 'nu', 'menyebarkan', 'aswaja']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['pimpin', 'pusat', 'muhammadiyah', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'khidmah', 'nu', 'sebar', 'aswaja']</t>
+          <t>['nashir', 'keren', 'gp', 'ansor']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['nashir', 'keren', 'gp', 'ansor']</t>
         </is>
       </c>
     </row>
@@ -1471,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17072</v>
+        <v>27841</v>
       </c>
       <c r="C30" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaya selalu nu</t>
+          <t>rt ansor alhamdulillah adik wahyu yang viral ketika adzani pemakaman orangtuanya sampai menangis sekarang akan mondok sesua</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['jaya', 'selalu', 'nu']</t>
+          <t>['rt', 'ansor', 'alhamdulillah', 'adik', 'wahyu', 'yang', 'viral', 'ketika', 'adzani', 'pemakaman', 'orangtuanya', 'sampai', 'menangis', 'sekarang', 'akan', 'mondok', 'sesua']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'alhamdulillah', 'adik', 'wahyu', 'yang', 'viral', 'ketika', 'adzani', 'pemakaman', 'orang, tuanya', 'sampai', 'menangis', 'sekarang', 'akan', 'mondok', 'sesua']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['jaya', 'nu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['jaya', 'nu']</t>
+          <t>['ansor', 'alhamdulillah', 'adik', 'wahyu', 'viral', 'adzani', 'pemakaman', 'orang, tuanya', 'menangis', 'mondok', 'sesua']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['ansor', 'alhamdulillah', 'adik', 'wahyu', 'viral', 'adzani', 'makam', 'orang tua', 'menang', 'mondok', 'sua']</t>
         </is>
       </c>
     </row>
@@ -1507,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17073</v>
+        <v>27842</v>
       </c>
       <c r="C31" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>keren</t>
+          <t>rt penyegaran temlen bosen posting banser lanangan terus</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['keren']</t>
+          <t>['rt', 'penyegaran', 'temlen', 'bosen', 'posting', 'banser', 'lanangan', 'terus']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'penyegaran', 'lini, masa', 'bosan', 'posting', 'barisan, serba, guna', 'lanangan', 'terus']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['keren']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['keren']</t>
+          <t>['penyegaran', 'lini, masa', 'bosan', 'posting', 'barisan, serba, guna', 'lanangan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['segar', 'lini masa', 'bosan', 'posting', 'baris serba guna', 'lanang']</t>
         </is>
       </c>
     </row>
@@ -1543,30 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17074</v>
+        <v>27843</v>
       </c>
       <c r="C32" t="n">
-        <v>212</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rt densus akan segera sidak munarman dengan dugaan terorisme</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'densus', 'akan', 'segera', 'sidak', 'munarman', 'dengan', 'dugaan', 'terorisme']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'betasemen, khusus', 'akan', 'segera', 'inspeksi, mendadak', 'munarman', 'dengan', 'dugaan', 'terorisme']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['betasemen, khusus', 'inspeksi, mendadak', 'munarman', 'dugaan', 'terorisme']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['betasemen khusus', 'inspeksi dadak', 'munarman', 'duga', 'terorisme']</t>
         </is>
       </c>
     </row>
@@ -1575,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17075</v>
+        <v>27844</v>
       </c>
       <c r="C33" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>itulah kerennya nu</t>
+          <t>rt nashir sejenak berdiri melihat kegembiraan yang tercipta diwajah anakanak korban bencana gempa majene mamuju terimakasih</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['itulah', 'kerennya', 'nu']</t>
+          <t>['rt', 'nashir', 'sejenak', 'berdiri', 'melihat', 'kegembiraan', 'yang', 'tercipta', 'diwajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terimakasih']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'nashir', 'sejenak', 'berdiri', 'melihat', 'kegembiraan', 'yang', 'tercipta', 'diwajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terima, kasih']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['kerennya', 'nu']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['keren', 'nu']</t>
+          <t>['nashir', 'berdiri', 'kegembiraan', 'tercipta', 'diwajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['nashir', 'diri', 'gembira', 'cipta', 'wajah', 'anakanak', 'korban', 'bencana', 'gempa', 'majene', 'mamuju', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -1611,30 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17076</v>
+        <v>27845</v>
       </c>
       <c r="C34" t="n">
-        <v>212</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>rt ansor satuan koordinasi rayon satkoryon banser banyuputih cepat tanggap terjun langsung membantu korban banjir di dukuh man</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'ansor', 'satuan', 'koordinasi', 'rayon', 'satkoryon', 'banser', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'membantu', 'korban', 'banjir', 'di', 'dukuh', 'man']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'satuan', 'koordinasi', 'rayon', 'satkoryon', 'barisan, serba, guna', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'membantu', 'korban', 'banjir', 'di', 'dukuh', 'man']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ansor', 'satuan', 'koordinasi', 'rayon', 'satkoryon', 'barisan, serba, guna', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'membantu', 'korban', 'banjir', 'dukuh', 'man']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['ansor', 'satu', 'koordinasi', 'rayon', 'satkoryon', 'baris serba guna', 'banyuputih', 'cepat', 'tanggap', 'terjun', 'langsung', 'bantu', 'korban', 'banjir', 'dukuh', 'man']</t>
         </is>
       </c>
     </row>
@@ -1643,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17077</v>
+        <v>27846</v>
       </c>
       <c r="C35" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt umam salah satu bentuk khidmah sahabatsahabat banser berupa pelayanan kesehatan dan obat gratis oleh banser husada basada</t>
+          <t>rt ansor selamat milad himpunan mahasiswa islam ke mengokohkan komitmen keislaman dan kebangsaan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'umam', 'salah', 'satu', 'bentuk', 'khidmah', 'sahabatsahabat', 'banser', 'berupa', 'pelayanan', 'kesehatan', 'dan', 'obat', 'gratis', 'oleh', 'banser', 'husada', 'basada']</t>
+          <t>['rt', 'ansor', 'selamat', 'milad', 'himpunan', 'mahasiswa', 'islam', 'ke', 'mengokohkan', 'komitmen', 'keislaman', 'dan', 'kebangsaan']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'selamat', 'milad', 'himpunan', 'mahasiswa', 'islam', 'ke', 'mengokohkan', 'komitmen', 'keislaman', 'dan', 'kebangsaan']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['umam', 'salah', 'bentuk', 'khidmah', 'sahabatsahabat', 'banser', 'pelayanan', 'kesehatan', 'obat', 'gratis', 'banser', 'husada', 'basada']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['umam', 'salah', 'bentuk', 'khidmah', 'sahabatsahabat', 'banser', 'layan', 'sehat', 'obat', 'gratis', 'banser', 'husada', 'basada']</t>
+          <t>['ansor', 'selamat', 'milad', 'himpunan', 'mahasiswa', 'islam', 'mengokohkan', 'komitmen', 'keislaman', 'kebangsaan']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['ansor', 'selamat', 'milad', 'himpun', 'mahasiswa', 'islam', 'kokoh', 'komitmen', 'islam', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -1679,34 +1870,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17078</v>
+        <v>27847</v>
       </c>
       <c r="C36" t="n">
-        <v>212</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rt akbar pembebasan ri</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'akbar', 'pembebasan', 'ri']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['akbar', 'pembebasan', 'ri']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['akbar', 'bebas', 'ri']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1715,34 +1907,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17079</v>
+        <v>27848</v>
       </c>
       <c r="C37" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt mossad israel kembali bahas kesepakatan nuklir iran dengan as</t>
+          <t>rt adab santri pada kyai</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'mossad', 'israel', 'kembali', 'bahas', 'kesepakatan', 'nuklir', 'iran', 'dengan', 'as']</t>
+          <t>['rt', 'adab', 'santri', 'pada', 'kyai']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'adab', 'santri', 'pada', 'kiai']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['mossad', 'israel', 'bahas', 'kesepakatan', 'nuklir', 'iran', 'as']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['mossad', 'israel', 'bahas', 'sepakat', 'nuklir', 'iran', 'as']</t>
+          <t>['adab', 'santri', 'kiai']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['adab', 'santri', 'kiai']</t>
         </is>
       </c>
     </row>
@@ -1751,34 +1948,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17080</v>
+        <v>27849</v>
       </c>
       <c r="C38" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt relawan lpbi nu kab sumedang menyalurkan bantuan bagi penyintas kebakaran dusun nyampai desa sukawangi kecamatan pamulihan </t>
+          <t>rt selamat harlah nu ke</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'lpbi', 'nu', 'kab', 'sumedang', 'menyalurkan', 'bantuan', 'bagi', 'penyintas', 'kebakaran', 'dusun', 'nyampai', 'desa', 'sukawangi', 'kecamatan', 'pamulihan']</t>
+          <t>['rt', 'selamat', 'harlah', 'nu', 'ke']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'harlah', 'nu', 'ke']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['relawan', 'lpbi', 'nu', 'kab', 'sumedang', 'menyalurkan', 'bantuan', 'penyintas', 'kebakaran', 'dusun', 'nyampai', 'desa', 'sukawangi', 'kecamatan', 'pamulihan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['rawan', 'lpbi', 'nu', 'kab', 'sumedang', 'salur', 'bantu', 'sintas', 'bakar', 'dusun', 'nyampai', 'desa', 'sukawangi', 'camat', 'pamulihan']</t>
+          <t>['selamat', 'harlah', 'nu']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['selamat', 'harlah', 'nu']</t>
         </is>
       </c>
     </row>
@@ -1787,34 +1989,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17081</v>
+        <v>27850</v>
       </c>
       <c r="C39" t="n">
-        <v>212</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>rt anggota komisi ii setuju ekshti dilarang maju pemilu pkb ansor</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'anggota', 'komisi', 'ii', 'setuju', 'ekshti', 'dilarang', 'maju', 'pemilu', 'pkb', 'ansor']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['anggota', 'komisi', 'ii', 'setuju', 'ekshti', 'dilarang', 'maju', 'pemilu', 'pkb', 'ansor']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['anggota', 'komisi', 'ii', 'tuju', 'ekshti', 'larang', 'maju', 'milu', 'pkb', 'ansor']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1823,10 +2026,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17082</v>
+        <v>27851</v>
       </c>
       <c r="C40" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1836,15 +2039,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1855,34 +2063,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17083</v>
+        <v>27852</v>
       </c>
       <c r="C41" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>pimpinan pusat gp ansor ketua umum gus yaqut cholil qoumas satu sekjen abdul rochman dan seluru</t>
+          <t>rt dirs ya allah jang</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['pimpinan', 'pusat', 'gp', 'ansor', 'ketua', 'umum', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'sekjen', 'abdul', 'rochman', 'dan', 'seluru']</t>
+          <t>['rt', 'dirs', 'ya', 'allah', 'jang']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'ya', 'allah', 'jang']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['pimpinan', 'pusat', 'gp', 'ansor', 'ketua', 'gus', 'yaqut', 'cholil', 'qoumas', 'sekjen', 'abdul', 'rochman', 'seluru']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['pimpin', 'pusat', 'gp', 'ansor', 'ketua', 'gus', 'yaqut', 'cholil', 'qoumas', 'sekjen', 'abdul', 'rochman', 'seluru']</t>
+          <t>['dirs', 'allah', 'jang']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['dirs', 'allah', 'jang']</t>
         </is>
       </c>
     </row>
@@ -1891,34 +2104,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17084</v>
+        <v>27853</v>
       </c>
       <c r="C42" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt dwi tunggal ketua umum satu dan sekjen</t>
+          <t xml:space="preserve">rt masih seputar giat penanggulangan bencana oleh banser kali ini untuk menghindari jebolnya tanggul karena debit air </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'dwi', 'tunggal', 'ketua', 'umum', 'satu', 'dan', 'sekjen']</t>
+          <t>['rt', 'masih', 'seputar', 'giat', 'penanggulangan', 'bencana', 'oleh', 'banser', 'kali', 'ini', 'untuk', 'menghindari', 'jebolnya', 'tanggul', 'karena', 'debit', 'air']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'masih', 'seputar', 'giat', 'penanggulangan', 'bencana', 'oleh', 'barisan, serba, guna', 'kali', 'ini', 'untuk', 'menghindari', 'jebolnya', 'tanggul', 'karena', 'debit', 'air']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['dwi', 'tunggal', 'ketua', 'sekjen']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['dwi', 'tunggal', 'ketua', 'sekjen']</t>
+          <t>['seputar', 'giat', 'penanggulangan', 'bencana', 'barisan, serba, guna', 'kali', 'menghindari', 'jebolnya', 'tanggul', 'debit', 'air']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['putar', 'giat', 'tanggulang', 'bencana', 'baris serba guna', 'kali', 'hindar', 'jebol', 'tanggul', 'debit', 'air']</t>
         </is>
       </c>
     </row>
@@ -1927,34 +2145,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17085</v>
+        <v>27854</v>
       </c>
       <c r="C43" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>selamat harla nu ke</t>
+          <t>rt para kyai sepuh nusantara bertemu dengan laku istikharah dan karomah dari syaikh cholil bangkalan kyai nusantara merapat kepad</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['selamat', 'harla', 'nu', 'ke']</t>
+          <t>['rt', 'para', 'kyai', 'sepuh', 'nusantara', 'bertemu', 'dengan', 'laku', 'istikharah', 'dan', 'karomah', 'dari', 'syaikh', 'cholil', 'bangkalan', 'kyai', 'nusantara', 'merapat', 'kepad']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'para', 'kiai', 'sepuh', 'nusantara', 'bertemu', 'dengan', 'laku', 'istikharah', 'dan', 'karamah', 'dari', 'syaikh', 'cholil', 'bangkalan', 'kiai', 'nusantara', 'merapat', 'kepada']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['selamat', 'harla', 'nu']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['selamat', 'harla', 'nu']</t>
+          <t>['kiai', 'sepuh', 'nusantara', 'bertemu', 'laku', 'istikharah', 'karamah', 'syaikh', 'cholil', 'bangkalan', 'kiai', 'nusantara', 'merapat']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kiai', 'sepuh', 'nusantara', 'temu', 'laku', 'istikharah', 'karamah', 'syaikh', 'cholil', 'bangkal', 'kiai', 'nusantara', 'rapat']</t>
         </is>
       </c>
     </row>
@@ -1963,30 +2186,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17086</v>
+        <v>27855</v>
       </c>
       <c r="C44" t="n">
-        <v>212</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rt pimpinan pusat muhammadiyah mengucapkan selamat harlah nahdlatul ulama ke dengan khidmah nu menyebarkan aswaja dan </t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'mengucapkan', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'dengan', 'khidmah', 'nu', 'menyebarkan', 'aswaja', 'dan']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'pimpinan', 'pusat', 'muhammadiyah', 'mengucapkan', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'ke', 'dengan', 'khidmah', 'nu', 'menyebarkan', 'aswaja', 'dan']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pimpinan', 'pusat', 'muhammadiyah', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'khidmah', 'nu', 'menyebarkan', 'aswaja']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['pimpin', 'pusat', 'muhammadiyah', 'selamat', 'harlah', 'nahdlatul', 'ulama', 'khidmah', 'nu', 'sebar', 'aswaja']</t>
         </is>
       </c>
     </row>
@@ -1995,34 +2227,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17087</v>
+        <v>27856</v>
       </c>
       <c r="C45" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt ketua umum gus satu dan sekjen pp gp ansor</t>
+          <t>jaya selalu nu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'ketua', 'umum', 'gus', 'satu', 'dan', 'sekjen', 'pp', 'gp', 'ansor']</t>
+          <t>['jaya', 'selalu', 'nu']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['jaya', 'selalu', 'nu']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['ketua', 'gus', 'sekjen', 'pp', 'gp', 'ansor']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['ketua', 'gus', 'sekjen', 'pp', 'gp', 'ansor']</t>
+          <t>['jaya', 'nu']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['jaya', 'nu']</t>
         </is>
       </c>
     </row>
@@ -2031,34 +2268,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17088</v>
+        <v>27857</v>
       </c>
       <c r="C46" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt dirs alhamdulillah registrasi komunitas santri gus nadirsyah hosen sudah bisa dimulai yuk gabung di men</t>
+          <t>keren</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'sudah', 'bisa', 'dimulai', 'yuk', 'gabung', 'di', 'men']</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['keren']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'yuk', 'gabung', 'men']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'yuk', 'gabung', 'men']</t>
+          <t>['keren']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['keren']</t>
         </is>
       </c>
     </row>
@@ -2067,34 +2309,35 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17089</v>
+        <v>27858</v>
       </c>
       <c r="C47" t="n">
-        <v>212</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>rt ansor bangkitlah bangkit putra pertiwi tiada gentar dada ke muka bela agama bangsa negeri selamat atas pelantikan pc gp an</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'bangkitlah', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'ke', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'atas', 'pelantikan', 'pc', 'gp', 'an']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['ansor', 'bangkitlah', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'pelantikan', 'pc', 'gp', 'an']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['ansor', 'bangkit', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'lantik', 'pc', 'gp', 'an']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2103,34 +2346,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17090</v>
+        <v>27859</v>
       </c>
       <c r="C48" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt satu saya merasakan bagaimana nikmatnya memegang teguh keyakinan dan di saat yg sama menghargai keyakinan yg dipegang teguh oran</t>
+          <t>itulah kerennya nu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'satu', 'saya', 'merasakan', 'bagaimana', 'nikmatnya', 'memegang', 'teguh', 'keyakinan', 'dan', 'di', 'saat', 'yg', 'sama', 'menghargai', 'keyakinan', 'yg', 'dipegang', 'teguh', 'oran']</t>
+          <t>['itulah', 'kerennya', 'nu']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['itulah', 'kerennya', 'nu']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['merasakan', 'nikmatnya', 'memegang', 'teguh', 'keyakinan', 'menghargai', 'keyakinan', 'dipegang', 'teguh', 'oran']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['rasa', 'nikmat', 'pegang', 'teguh', 'yakin', 'harga', 'yakin', 'pegang', 'teguh', 'oran']</t>
+          <t>['kerennya', 'nu']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['keren', 'nu']</t>
         </is>
       </c>
     </row>
@@ -2139,34 +2387,35 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17091</v>
+        <v>27860</v>
       </c>
       <c r="C49" t="n">
-        <v>212</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>rt hingga hari ke semangat banser tanggap bencana satkorcab tetap membara dalam giat perbaikan tanggul su</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'hingga', 'hari', 'ke', 'semangat', 'banser', 'tanggap', 'bencana', 'satkorcab', 'tetap', 'membara', 'dalam', 'giat', 'perbaikan', 'tanggul', 'su']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['semangat', 'banser', 'tanggap', 'bencana', 'satkorcab', 'membara', 'giat', 'perbaikan', 'tanggul', 'su']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['semangat', 'banser', 'tanggap', 'bencana', 'satkorcab', 'bara', 'giat', 'baik', 'tanggul', 'su']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2175,34 +2424,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17092</v>
+        <v>27861</v>
       </c>
       <c r="C50" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt laporan perkembangan respon nu peduli sulawesi barat per januari</t>
+          <t>rt umam salah satu bentuk khidmah sahabatsahabat banser berupa pelayanan kesehatan dan obat gratis oleh banser husada basada</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'per', 'januari']</t>
+          <t>['rt', 'umam', 'salah', 'satu', 'bentuk', 'khidmah', 'sahabatsahabat', 'banser', 'berupa', 'pelayanan', 'kesehatan', 'dan', 'obat', 'gratis', 'oleh', 'banser', 'husada', 'basada']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'umam', 'salah', 'satu', 'bentuk', 'khidmah', 'sahabatsahabat', 'barisan, serba, guna', 'berupa', 'pelayanan', 'kesehatan', 'dan', 'obat', 'gratis', 'oleh', 'barisan, serba, guna', 'husada', 'basada']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'januari']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['lapor', 'kembang', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'januari']</t>
+          <t>['umam', 'salah', 'bentuk', 'khidmah', 'sahabatsahabat', 'barisan, serba, guna', 'pelayanan', 'kesehatan', 'obat', 'gratis', 'barisan, serba, guna', 'husada', 'basada']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['umam', 'salah', 'bentuk', 'khidmah', 'sahabatsahabat', 'baris serba guna', 'layan', 'sehat', 'obat', 'gratis', 'baris serba guna', 'husada', 'basada']</t>
         </is>
       </c>
     </row>
@@ -2211,34 +2465,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17093</v>
+        <v>27862</v>
       </c>
       <c r="C51" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt giat lpbi nu jatim bersama lpbi nu mojokerto dan lamongan mendistribusikan bantuan untuk warga terdampak banjir di desa bojo</t>
+          <t>rt akbar pembebasan ri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'giat', 'lpbi', 'nu', 'jatim', 'bersama', 'lpbi', 'nu', 'mojokerto', 'dan', 'lamongan', 'mendistribusikan', 'bantuan', 'untuk', 'warga', 'terdampak', 'banjir', 'di', 'desa', 'bojo']</t>
+          <t>['rt', 'akbar', 'pembebasan', 'ri']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'akbar', 'pembebasan', 'ri']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['giat', 'lpbi', 'nu', 'jatim', 'lpbi', 'nu', 'mojokerto', 'lamongan', 'mendistribusikan', 'bantuan', 'warga', 'terdampak', 'banjir', 'desa', 'bojo']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['giat', 'lpbi', 'nu', 'jatim', 'lpbi', 'nu', 'mojokerto', 'lamongan', 'distribusi', 'bantu', 'warga', 'dampak', 'banjir', 'desa', 'bojo']</t>
+          <t>['akbar', 'pembebasan', 'ri']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['akbar', 'bebas', 'ri']</t>
         </is>
       </c>
     </row>
@@ -2247,34 +2506,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17094</v>
+        <v>27863</v>
       </c>
       <c r="C52" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt perjalanan banser kutai kartanegara dengan melakukan penyebrangan balikpapan ppu untuk menuju kalsel dengan misi kem</t>
+          <t>rt mossad israel kembali bahas kesepakatan nuklir iran dengan as</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'perjalanan', 'banser', 'kutai', 'kartanegara', 'dengan', 'melakukan', 'penyebrangan', 'balikpapan', 'ppu', 'untuk', 'menuju', 'kalsel', 'dengan', 'misi', 'kem']</t>
+          <t>['rt', 'mossad', 'israel', 'kembali', 'bahas', 'kesepakatan', 'nuklir', 'iran', 'dengan', 'as']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'mossad', 'israel', 'kembali', 'bahas', 'kesepakatan', 'nuklir', 'iran', 'dengan', 'as']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['perjalanan', 'banser', 'kutai', 'kartanegara', 'penyebrangan', 'balikpapan', 'ppu', 'kalsel', 'misi', 'kem']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['jalan', 'banser', 'kuta', 'kartanegara', 'penyebrangan', 'balikpapan', 'ppu', 'kalsel', 'misi', 'kem']</t>
+          <t>['mossad', 'israel', 'bahas', 'kesepakatan', 'nuklir', 'iran', 'as']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['mossad', 'israel', 'bahas', 'sepakat', 'nuklir', 'iran', 'as']</t>
         </is>
       </c>
     </row>
@@ -2283,34 +2547,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17095</v>
+        <v>27864</v>
       </c>
       <c r="C53" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt tak pernah lelah untuk hidup yang bermanfaat bagi sesama banser kalsel distribusi air bersih ke kabupaten hulu sunga</t>
+          <t xml:space="preserve">rt relawan lpbi nu kab sumedang menyalurkan bantuan bagi penyintas kebakaran dusun nyampai desa sukawangi kecamatan pamulihan </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'tak', 'pernah', 'lelah', 'untuk', 'hidup', 'yang', 'bermanfaat', 'bagi', 'sesama', 'banser', 'kalsel', 'distribusi', 'air', 'bersih', 'ke', 'kabupaten', 'hulu', 'sunga']</t>
+          <t>['rt', 'relawan', 'lpbi', 'nu', 'kab', 'sumedang', 'menyalurkan', 'bantuan', 'bagi', 'penyintas', 'kebakaran', 'dusun', 'nyampai', 'desa', 'sukawangi', 'kecamatan', 'pamulihan']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'relawan', 'lpbi', 'nu', 'kabupaten', 'sumedang', 'menyalurkan', 'bantuan', 'bagi', 'penyintas', 'kebakaran', 'dusun', 'nyampai', 'desa', 'sukawangi', 'kecamatan', 'pamulihan']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['lelah', 'hidup', 'bermanfaat', 'banser', 'kalsel', 'distribusi', 'air', 'bersih', 'kabupaten', 'hulu', 'sunga']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['lelah', 'hidup', 'manfaat', 'banser', 'kalsel', 'distribusi', 'air', 'bersih', 'kabupaten', 'hulu', 'sunga']</t>
+          <t>['relawan', 'lpbi', 'nu', 'kabupaten', 'sumedang', 'menyalurkan', 'bantuan', 'penyintas', 'kebakaran', 'dusun', 'nyampai', 'desa', 'sukawangi', 'kecamatan', 'pamulihan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['rawan', 'lpbi', 'nu', 'kabupaten', 'sumedang', 'salur', 'bantu', 'sintas', 'bakar', 'dusun', 'nyampai', 'desa', 'sukawangi', 'camat', 'pamulihan']</t>
         </is>
       </c>
     </row>
@@ -2319,34 +2588,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17096</v>
+        <v>27865</v>
       </c>
       <c r="C54" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt bantuan dari untuk para korban bencana banjir di kalsel melalui gp ansor</t>
+          <t>rt anggota komisi ii setuju ekshti dilarang maju pemilu pkb ansor</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'bantuan', 'dari', 'untuk', 'para', 'korban', 'bencana', 'banjir', 'di', 'kalsel', 'melalui', 'gp', 'ansor']</t>
+          <t>['rt', 'anggota', 'komisi', 'ii', 'setuju', 'ekshti', 'dilarang', 'maju', 'pemilu', 'pkb', 'ansor']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'anggota', 'komisi', 'ih', 'setuju', 'ekshti', 'dilarang', 'maju', 'pemilihan, umum', 'partai, kebangkitan, bangsa', 'ansor']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['bantuan', 'korban', 'bencana', 'banjir', 'kalsel', 'gp', 'ansor']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['bantu', 'korban', 'bencana', 'banjir', 'kalsel', 'gp', 'ansor']</t>
+          <t>['anggota', 'komisi', 'ih', 'setuju', 'ekshti', 'dilarang', 'maju', 'pemilihan, umum', 'partai, kebangkitan, bangsa', 'ansor']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['anggota', 'komisi', 'ih', 'tuju', 'ekshti', 'larang', 'maju', 'pilih umum', 'partai bangkit bangsa', 'ansor']</t>
         </is>
       </c>
     </row>
@@ -2355,34 +2629,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17097</v>
+        <v>27866</v>
       </c>
       <c r="C55" t="n">
-        <v>212</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>rt ketua pw gp ansor sulawesi selatan tiba di posko banser tanggap bencana di kota mamuju untuk menyerahkan bantuan warga</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'tiba', 'di', 'posko', 'banser', 'tanggap', 'bencana', 'di', 'kota', 'mamuju', 'untuk', 'menyerahkan', 'bantuan', 'warga']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'posko', 'banser', 'tanggap', 'bencana', 'kota', 'mamuju', 'menyerahkan', 'bantuan', 'warga']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'posko', 'banser', 'tanggap', 'bencana', 'kota', 'mamuju', 'serah', 'bantu', 'warga']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2391,34 +2666,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17098</v>
+        <v>27867</v>
       </c>
       <c r="C56" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt diklatsar banser pac gp ansor donorojo dan punung kabupaten pacitan pelaksanaan dan jumlah peserta dalam kegiatan dikl</t>
+          <t>pimpinan pusat gp ansor ketua umum gus yaqut cholil qoumas satu sekjen abdul rochman dan seluru</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'pelaksanaan', 'dan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'dikl']</t>
+          <t>['pimpinan', 'pusat', 'gp', 'ansor', 'ketua', 'umum', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'sekjen', 'abdul', 'rochman', 'dan', 'seluru']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['pimpinan', 'pusat', 'gp', 'ansor', 'ketua', 'umum', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'sekretariat, jenderal', 'abdul', 'rochman', 'dan', 'seluruh']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'pelaksanaan', 'peserta', 'kegiatan', 'dikl']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'laksana', 'serta', 'giat', 'dikl']</t>
+          <t>['pimpinan', 'pusat', 'gp', 'ansor', 'ketua', 'gus', 'yaqut', 'cholil', 'qoumas', 'sekretariat, jenderal', 'abdul', 'rochman']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['pimpin', 'pusat', 'gp', 'ansor', 'ketua', 'gus', 'yaqut', 'cholil', 'qoumas', 'sekretariat jenderal', 'abdul', 'rochman']</t>
         </is>
       </c>
     </row>
@@ -2427,34 +2707,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17099</v>
+        <v>27868</v>
       </c>
       <c r="C57" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt lefy banser ditengah banjir dia menerobos banjir untuk menyelamatkan bayi yg keluarga nya menjadi korban banjir di kalsel</t>
+          <t>rt dwi tunggal ketua umum satu dan sekjen</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'lefy', 'banser', 'ditengah', 'banjir', 'dia', 'menerobos', 'banjir', 'untuk', 'menyelamatkan', 'bayi', 'yg', 'keluarga', 'nya', 'menjadi', 'korban', 'banjir', 'di', 'kalsel']</t>
+          <t>['rt', 'dwi', 'tunggal', 'ketua', 'umum', 'satu', 'dan', 'sekjen']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'dwi', 'tunggal', 'ketua', 'umum', 'satu', 'dan', 'sekretariat, jenderal']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['lefy', 'banser', 'ditengah', 'banjir', 'menerobos', 'banjir', 'menyelamatkan', 'bayi', 'keluarga', 'korban', 'banjir', 'kalsel']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['lefy', 'banser', 'tengah', 'banjir', 'terobos', 'banjir', 'selamat', 'bayi', 'keluarga', 'korban', 'banjir', 'kalsel']</t>
+          <t>['dwi', 'tunggal', 'ketua', 'sekretariat, jenderal']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['dwi', 'tunggal', 'ketua', 'sekretariat jenderal']</t>
         </is>
       </c>
     </row>
@@ -2463,34 +2748,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17100</v>
+        <v>27869</v>
       </c>
       <c r="C58" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gak tau sejarah asal ngomong aja</t>
+          <t>selamat harla nu ke</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['gak', 'tau', 'sejarah', 'asal', 'ngomong', 'aja']</t>
+          <t>['selamat', 'harla', 'nu', 'ke']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['selamat', 'harla', 'nu', 'ke']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['sejarah', 'ngomong']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['sejarah', 'ngomong']</t>
+          <t>['selamat', 'harla', 'nu']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['selamat', 'harla', 'nu']</t>
         </is>
       </c>
     </row>
@@ -2499,34 +2789,35 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17101</v>
+        <v>27870</v>
       </c>
       <c r="C59" t="n">
-        <v>212</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>rt ansor bagana banser tanggap bencana sulawesi barat membagikan masker di posko pengungsian dalam rangka waspada prokes dalam</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'bagana', 'banser', 'tanggap', 'bencana', 'sulawesi', 'barat', 'membagikan', 'masker', 'di', 'posko', 'pengungsian', 'dalam', 'rangka', 'waspada', 'prokes', 'dalam']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['ansor', 'bagana', 'banser', 'tanggap', 'bencana', 'sulawesi', 'barat', 'membagikan', 'masker', 'posko', 'pengungsian', 'rangka', 'waspada', 'prokes']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ansor', 'bagana', 'banser', 'tanggap', 'bencana', 'sulawesi', 'barat', 'bagi', 'masker', 'posko', 'ungsi', 'rangka', 'waspada', 'prokes']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2535,34 +2826,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17102</v>
+        <v>27871</v>
       </c>
       <c r="C60" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt satu hari ini presiden menjadi yang pertama menerima vaksin covid selanjutnya sesuai kriteria kita semua akan menyu</t>
+          <t>rt ketua umum gus satu dan sekjen pp gp ansor</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'satu', 'hari', 'ini', 'presiden', 'menjadi', 'yang', 'pertama', 'menerima', 'vaksin', 'covid', 'selanjutnya', 'sesuai', 'kriteria', 'kita', 'semua', 'akan', 'menyu']</t>
+          <t>['rt', 'ketua', 'umum', 'gus', 'satu', 'dan', 'sekjen', 'pp', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ketua', 'umum', 'gus', 'satu', 'dan', 'sekretariat, jenderal', 'pp', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['presiden', 'menerima', 'vaksin', 'covid', 'sesuai', 'kriteria', 'menyu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['presiden', 'terima', 'vaksin', 'covid', 'sesuai', 'kriteria', 'menyu']</t>
+          <t>['ketua', 'gus', 'sekretariat, jenderal', 'pp', 'gp', 'ansor']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['ketua', 'gus', 'sekretariat jenderal', 'pp', 'gp', 'ansor']</t>
         </is>
       </c>
     </row>
@@ -2571,34 +2867,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17103</v>
+        <v>27872</v>
       </c>
       <c r="C61" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt terima kasih untuk sahabat sahabat atas doa baiknya semoga allah swt menganugerahkan keberkahan yang sama untuk sahab</t>
+          <t>rt dirs alhamdulillah registrasi komunitas santri gus nadirsyah hosen sudah bisa dimulai yuk gabung di men</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'untuk', 'sahabat', 'sahabat', 'atas', 'doa', 'baiknya', 'semoga', 'allah', 'swt', 'menganugerahkan', 'keberkahan', 'yang', 'sama', 'untuk', 'sahab']</t>
+          <t>['rt', 'dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'sudah', 'bisa', 'dimulai', 'yuk', 'gabung', 'di', 'men']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'sudah', 'bisa', 'dimulai', 'yuk', 'gabung', 'di', 'men']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'sahabat', 'sahabat', 'doa', 'baiknya', 'semoga', 'allah', 'swt', 'menganugerahkan', 'keberkahan', 'sahab']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'sahabat', 'sahabat', 'doa', 'baik', 'moga', 'allah', 'swt', 'anugerah', 'berkah', 'sahab']</t>
+          <t>['dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'yuk', 'gabung', 'men']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['dirs', 'alhamdulillah', 'registrasi', 'komunitas', 'santri', 'gus', 'nadirsyah', 'hosen', 'yuk', 'gabung', 'men']</t>
         </is>
       </c>
     </row>
@@ -2607,34 +2908,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17104</v>
+        <v>27873</v>
       </c>
       <c r="C62" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>selamat ultah ke gus ketum satu gus men selalu sehat berkah dan manfaat utk umat dan bangsa</t>
+          <t>rt ansor bangkitlah bangkit putra pertiwi tiada gentar dada ke muka bela agama bangsa negeri selamat atas pelantikan pc gp an</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['selamat', 'ultah', 'ke', 'gus', 'ketum', 'satu', 'gus', 'men', 'selalu', 'sehat', 'berkah', 'dan', 'manfaat', 'utk', 'umat', 'dan', 'bangsa']</t>
+          <t>['rt', 'ansor', 'bangkitlah', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'ke', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'atas', 'pelantikan', 'pc', 'gp', 'an']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'bangkitlah', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'ke', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'atas', 'pelantikan', 'pc', 'gp', 'an']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['selamat', 'ultah', 'gus', 'ketum', 'gus', 'men', 'sehat', 'berkah', 'manfaat', 'umat', 'bangsa']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['selamat', 'ultah', 'gus', 'tum', 'gus', 'men', 'sehat', 'berkah', 'manfaat', 'umat', 'bangsa']</t>
+          <t>['ansor', 'bangkitlah', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'pelantikan', 'pc', 'gp', 'an']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['ansor', 'bangkit', 'bangkit', 'putra', 'pertiwi', 'tiada', 'gentar', 'dada', 'muka', 'bela', 'agama', 'bangsa', 'negeri', 'selamat', 'lantik', 'pc', 'gp', 'an']</t>
         </is>
       </c>
     </row>
@@ -2643,34 +2949,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17105</v>
+        <v>27874</v>
       </c>
       <c r="C63" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt tanpa lelah apalagi meneyerah gp ansor yakin akan ada hasil dengan adanya giat dan edukasi ini mari tetap jaga </t>
+          <t>rt satu saya merasakan bagaimana nikmatnya memegang teguh keyakinan dan di saat yg sama menghargai keyakinan yg dipegang teguh oran</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'tanpa', 'lelah', 'apalagi', 'meneyerah', 'gp', 'ansor', 'yakin', 'akan', 'ada', 'hasil', 'dengan', 'adanya', 'giat', 'dan', 'edukasi', 'ini', 'mari', 'tetap', 'jaga']</t>
+          <t>['rt', 'satu', 'saya', 'merasakan', 'bagaimana', 'nikmatnya', 'memegang', 'teguh', 'keyakinan', 'dan', 'di', 'saat', 'yg', 'sama', 'menghargai', 'keyakinan', 'yg', 'dipegang', 'teguh', 'oran']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'satu', 'saya', 'merasakan', 'bagaimana', 'nikmatnya', 'memegang', 'teguh', 'keyakinan', 'dan', 'di', 'saat', 'yang', 'sama', 'menghargai', 'keyakinan', 'yang', 'dipegang', 'teguh', 'orang']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['lelah', 'meneyerah', 'gp', 'ansor', 'hasil', 'giat', 'edukasi', 'mari', 'jaga']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['lelah', 'meneyerah', 'gp', 'ansor', 'hasil', 'giat', 'edukasi', 'mari', 'jaga']</t>
+          <t>['merasakan', 'nikmatnya', 'memegang', 'teguh', 'keyakinan', 'menghargai', 'keyakinan', 'dipegang', 'teguh', 'orang']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['rasa', 'nikmat', 'pegang', 'teguh', 'yakin', 'harga', 'yakin', 'pegang', 'teguh', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2679,34 +2990,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17106</v>
+        <v>27875</v>
       </c>
       <c r="C64" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt ansor ansor mengajak kepada kaderkader fpi untuk melanjutkan perjuangannya secara baik dengan berbagung di ormas islam yang</t>
+          <t>rt hingga hari ke semangat banser tanggap bencana satkorcab tetap membara dalam giat perbaikan tanggul su</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'ansor', 'mengajak', 'kepada', 'kaderkader', 'fpi', 'untuk', 'melanjutkan', 'perjuangannya', 'secara', 'baik', 'dengan', 'berbagung', 'di', 'ormas', 'islam', 'yang']</t>
+          <t>['rt', 'hingga', 'hari', 'ke', 'semangat', 'banser', 'tanggap', 'bencana', 'satkorcab', 'tetap', 'membara', 'dalam', 'giat', 'perbaikan', 'tanggul', 'su']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'hingga', 'hari', 'ke', 'semangat', 'barisan, serba, guna', 'tanggap', 'bencana', 'satkorcab', 'tetap', 'membara', 'dalam', 'giat', 'perbaikan', 'tanggul', 'su']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['ansor', 'ansor', 'mengajak', 'kaderkader', 'fpi', 'melanjutkan', 'perjuangannya', 'berbagung', 'ormas', 'islam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['ansor', 'ansor', 'ajak', 'kaderkader', 'fpi', 'lanjut', 'juang', 'berbagung', 'ormas', 'islam']</t>
+          <t>['semangat', 'barisan, serba, guna', 'tanggap', 'bencana', 'satkorcab', 'membara', 'giat', 'perbaikan', 'tanggul', 'su']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['semangat', 'baris serba guna', 'tanggap', 'bencana', 'satkorcab', 'bara', 'giat', 'baik', 'tanggul', 'su']</t>
         </is>
       </c>
     </row>
@@ -2715,34 +3031,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17107</v>
+        <v>27876</v>
       </c>
       <c r="C65" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt ansor gp ansor ajak eks fpi gabung ormas moderat seperti nu atau muhammadiyah</t>
+          <t>rt laporan perkembangan respon nu peduli sulawesi barat per januari</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'gp', 'ansor', 'ajak', 'eks', 'fpi', 'gabung', 'ormas', 'moderat', 'seperti', 'nu', 'atau', 'muhammadiyah']</t>
+          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'per', 'januari']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'per', 'januari']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['ansor', 'gp', 'ansor', 'ajak', 'eks', 'fpi', 'gabung', 'ormas', 'moderat', 'nu', 'muhammadiyah']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['ansor', 'gp', 'ansor', 'ajak', 'eks', 'fpi', 'gabung', 'ormas', 'moderat', 'nu', 'muhammadiyah']</t>
+          <t>['laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'januari']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['lapor', 'kembang', 'respon', 'nu', 'peduli', 'sulawesi', 'barat', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2751,34 +3072,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17108</v>
+        <v>27877</v>
       </c>
       <c r="C66" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt jika ada perbedaan pandangan termasuk dalam hal keagamaan maka harus diselesaikan dengan dialog ri</t>
+          <t>rt giat lpbi nu jatim bersama lpbi nu mojokerto dan lamongan mendistribusikan bantuan untuk warga terdampak banjir di desa bojo</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'ada', 'perbedaan', 'pandangan', 'termasuk', 'dalam', 'hal', 'keagamaan', 'maka', 'harus', 'diselesaikan', 'dengan', 'dialog', 'ri']</t>
+          <t>['rt', 'giat', 'lpbi', 'nu', 'jatim', 'bersama', 'lpbi', 'nu', 'mojokerto', 'dan', 'lamongan', 'mendistribusikan', 'bantuan', 'untuk', 'warga', 'terdampak', 'banjir', 'di', 'desa', 'bojo']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'giat', 'lpbi', 'nu', 'jawa, timur', 'bersama', 'lpbi', 'nu', 'mojokerto', 'dan', 'lamongan', 'mendistribusikan', 'bantuan', 'untuk', 'warga', 'terdampak', 'banjir', 'di', 'desa', 'bojo']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['perbedaan', 'pandangan', 'keagamaan', 'diselesaikan', 'dialog', 'ri']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['beda', 'pandang', 'agama', 'selesai', 'dialog', 'ri']</t>
+          <t>['giat', 'lpbi', 'nu', 'jawa, timur', 'lpbi', 'nu', 'mojokerto', 'lamongan', 'mendistribusikan', 'bantuan', 'warga', 'terdampak', 'banjir', 'desa', 'bojo']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['giat', 'lpbi', 'nu', 'jawa timur', 'lpbi', 'nu', 'mojokerto', 'lamongan', 'distribusi', 'bantu', 'warga', 'dampak', 'banjir', 'desa', 'bojo']</t>
         </is>
       </c>
     </row>
@@ -2787,30 +3113,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17109</v>
+        <v>27878</v>
       </c>
       <c r="C67" t="n">
-        <v>212</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>rt perjalanan banser kutai kartanegara dengan melakukan penyebrangan balikpapan ppu untuk menuju kalsel dengan misi kem</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'perjalanan', 'banser', 'kutai', 'kartanegara', 'dengan', 'melakukan', 'penyebrangan', 'balikpapan', 'ppu', 'untuk', 'menuju', 'kalsel', 'dengan', 'misi', 'kem']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'perjalanan', 'barisan, serba, guna', 'kutai', 'kartanegara', 'dengan', 'melakukan', 'penyebrangan', 'balikpapan', 'ppu', 'untuk', 'menuju', 'kalsel', 'dengan', 'misi', 'kem']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['perjalanan', 'barisan, serba, guna', 'kutai', 'kartanegara', 'penyebrangan', 'balikpapan', 'ppu', 'kalsel', 'misi', 'kem']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['jalan', 'baris serba guna', 'kuta', 'kartanegara', 'penyebrangan', 'balikpapan', 'ppu', 'kalsel', 'misi', 'kem']</t>
         </is>
       </c>
     </row>
@@ -2819,30 +3154,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17110</v>
+        <v>27879</v>
       </c>
       <c r="C68" t="n">
-        <v>212</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>rt tak pernah lelah untuk hidup yang bermanfaat bagi sesama banser kalsel distribusi air bersih ke kabupaten hulu sunga</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'tak', 'pernah', 'lelah', 'untuk', 'hidup', 'yang', 'bermanfaat', 'bagi', 'sesama', 'banser', 'kalsel', 'distribusi', 'air', 'bersih', 'ke', 'kabupaten', 'hulu', 'sunga']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'tak', 'pernah', 'lelah', 'untuk', 'hidup', 'yang', 'bermanfaat', 'bagi', 'sesama', 'barisan, serba, guna', 'kalsel', 'distribusi', 'air', 'bersih', 'ke', 'kabupaten', 'hulu', 'sunga']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lelah', 'hidup', 'bermanfaat', 'barisan, serba, guna', 'kalsel', 'distribusi', 'air', 'bersih', 'kabupaten', 'hulu', 'sunga']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['lelah', 'hidup', 'manfaat', 'baris serba guna', 'kalsel', 'distribusi', 'air', 'bersih', 'kabupaten', 'hulu', 'sunga']</t>
         </is>
       </c>
     </row>
@@ -2851,30 +3195,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17111</v>
+        <v>27880</v>
       </c>
       <c r="C69" t="n">
-        <v>212</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>rt bantuan dari untuk para korban bencana banjir di kalsel melalui gp ansor</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'bantuan', 'dari', 'untuk', 'para', 'korban', 'bencana', 'banjir', 'di', 'kalsel', 'melalui', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'bantuan', 'dari', 'untuk', 'para', 'korban', 'bencana', 'banjir', 'di', 'kalsel', 'melalui', 'gp', 'ansor']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bantuan', 'korban', 'bencana', 'banjir', 'kalsel', 'gp', 'ansor']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bantu', 'korban', 'bencana', 'banjir', 'kalsel', 'gp', 'ansor']</t>
         </is>
       </c>
     </row>
@@ -2883,34 +3236,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17112</v>
+        <v>27881</v>
       </c>
       <c r="C70" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt gus yaqut dianugerahi tokoh inspiratif millenial berkat kegigihan beliau merawat dan menjaga nkri yang saat ini rawan</t>
+          <t>rt ketua pw gp ansor sulawesi selatan tiba di posko banser tanggap bencana di kota mamuju untuk menyerahkan bantuan warga</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'gus', 'yaqut', 'dianugerahi', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'kegigihan', 'beliau', 'merawat', 'dan', 'menjaga', 'nkri', 'yang', 'saat', 'ini', 'rawan']</t>
+          <t>['rt', 'ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'tiba', 'di', 'posko', 'banser', 'tanggap', 'bencana', 'di', 'kota', 'mamuju', 'untuk', 'menyerahkan', 'bantuan', 'warga']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'tiba', 'di', 'posko', 'barisan, serba, guna', 'tanggap', 'bencana', 'di', 'kota', 'mamuju', 'untuk', 'menyerahkan', 'bantuan', 'warga']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['gus', 'yaqut', 'dianugerahi', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'kegigihan', 'beliau', 'merawat', 'menjaga', 'nkri', 'rawan']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['gus', 'yaqut', 'anugerah', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'gigih', 'beliau', 'rawat', 'jaga', 'nkri', 'rawan']</t>
+          <t>['ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'posko', 'barisan, serba, guna', 'tanggap', 'bencana', 'kota', 'mamuju', 'menyerahkan', 'bantuan', 'warga']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['ketua', 'pw', 'gp', 'ansor', 'sulawesi', 'selatan', 'posko', 'baris serba guna', 'tanggap', 'bencana', 'kota', 'mamuju', 'serah', 'bantu', 'warga']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +3277,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17113</v>
+        <v>27882</v>
       </c>
       <c r="C71" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt ansor ketua umum pimpinan pusat gerakan pemuda ansor gus yaqut mengucapkan selamat merayakan natal untuk saudaraku umat</t>
+          <t>rt diklatsar banser pac gp ansor donorojo dan punung kabupaten pacitan pelaksanaan dan jumlah peserta dalam kegiatan dikl</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'ketua', 'umum', 'pimpinan', 'pusat', 'gerakan', 'pemuda', 'ansor', 'gus', 'yaqut', 'mengucapkan', 'selamat', 'merayakan', 'natal', 'untuk', 'saudaraku', 'umat']</t>
+          <t>['rt', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'pelaksanaan', 'dan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'dikl']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['rt', 'diklatsar', 'barisan, serba, guna', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'pelaksanaan', 'dan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'dikl']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['ansor', 'ketua', 'pimpinan', 'pusat', 'gerakan', 'pemuda', 'ansor', 'gus', 'yaqut', 'selamat', 'merayakan', 'natal', 'saudaraku', 'umat']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['ansor', 'ketua', 'pimpin', 'pusat', 'gera', 'pemuda', 'ansor', 'gus', 'yaqut', 'selamat', 'raya', 'natal', 'saudara', 'umat']</t>
+          <t>['diklatsar', 'barisan, serba, guna', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'pelaksanaan', 'peserta', 'kegiatan', 'dikl']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['diklatsar', 'baris serba guna', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'laksana', 'serta', 'giat', 'dikl']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3318,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17114</v>
+        <v>27883</v>
       </c>
       <c r="C72" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt selamat bertugas gus mentri satu semoga amanah amp membanggakan cc att</t>
+          <t>rt lefy banser ditengah banjir dia menerobos banjir untuk menyelamatkan bayi yg keluarga nya menjadi korban banjir di kalsel</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'bertugas', 'gus', 'mentri', 'satu', 'semoga', 'amanah', 'amp', 'membanggakan', 'cc', 'att']</t>
+          <t>['rt', 'lefy', 'banser', 'ditengah', 'banjir', 'dia', 'menerobos', 'banjir', 'untuk', 'menyelamatkan', 'bayi', 'yg', 'keluarga', 'nya', 'menjadi', 'korban', 'banjir', 'di', 'kalsel']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'lefy', 'barisan, serba, guna', 'ditengah', 'banjir', 'dia', 'menerobos', 'banjir', 'untuk', 'menyelamatkan', 'bayi', 'yang', 'keluarga', 'nya', 'menjadi', 'korban', 'banjir', 'di', 'kalsel']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['selamat', 'bertugas', 'gus', 'mentri', 'semoga', 'amanah', 'membanggakan', 'cc', 'att']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['selamat', 'tugas', 'gus', 'tri', 'moga', 'amanah', 'bangga', 'cc', 'att']</t>
+          <t>['lefy', 'barisan, serba, guna', 'ditengah', 'banjir', 'menerobos', 'banjir', 'menyelamatkan', 'bayi', 'keluarga', 'korban', 'banjir', 'kalsel']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['lefy', 'baris serba guna', 'tengah', 'banjir', 'terobos', 'banjir', 'selamat', 'bayi', 'keluarga', 'korban', 'banjir', 'kalsel']</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3359,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17115</v>
+        <v>27884</v>
       </c>
       <c r="C73" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt selamat sang pemberani satu presiden jokowi mengambil langkah tepat dengan mengangka</t>
+          <t>gak tau sejarah asal ngomong aja</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'sang', 'pemberani', 'satu', 'presiden', 'jokowi', 'mengambil', 'langkah', 'tepat', 'dengan', 'mengangka']</t>
+          <t>['gak', 'tau', 'sejarah', 'asal', 'ngomong', 'aja']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['tidak', 'tau', 'sejarah', 'asal', 'berbicara', 'saja']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['selamat', 'sang', 'pemberani', 'presiden', 'jokowi', 'mengambil', 'langkah', 'mengangka']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['selamat', 'sang', 'berani', 'presiden', 'jokowi', 'ambil', 'langkah', 'angka']</t>
+          <t>['sejarah', 'berbicara']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['sejarah', 'bicara']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3400,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17116</v>
+        <v>27885</v>
       </c>
       <c r="C74" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt ansor mohon doa restu bapak ibu sekalian dan seluruh rakyat indonesia agar amanah ini bisa dilaksanakan dengan istiqomah dala</t>
+          <t>rt ansor bagana banser tanggap bencana sulawesi barat membagikan masker di posko pengungsian dalam rangka waspada prokes dalam</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'mohon', 'doa', 'restu', 'bapak', 'ibu', 'sekalian', 'dan', 'seluruh', 'rakyat', 'indonesia', 'agar', 'amanah', 'ini', 'bisa', 'dilaksanakan', 'dengan', 'istiqomah', 'dala']</t>
+          <t>['rt', 'ansor', 'bagana', 'banser', 'tanggap', 'bencana', 'sulawesi', 'barat', 'membagikan', 'masker', 'di', 'posko', 'pengungsian', 'dalam', 'rangka', 'waspada', 'prokes', 'dalam']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'bagana', 'barisan, serba, guna', 'tanggap', 'bencana', 'sulawesi', 'barat', 'membagikan', 'masker', 'di', 'posko', 'pengungsian', 'dalam', 'rangka', 'waspada', 'prokes', 'dalam']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['ansor', 'mohon', 'doa', 'restu', 'rakyat', 'indonesia', 'amanah', 'dilaksanakan', 'istiqomah', 'dala']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['ansor', 'mohon', 'doa', 'restu', 'rakyat', 'indonesia', 'amanah', 'laksana', 'istiqomah', 'dala']</t>
+          <t>['ansor', 'bagana', 'barisan, serba, guna', 'tanggap', 'bencana', 'sulawesi', 'barat', 'membagikan', 'masker', 'posko', 'pengungsian', 'rangka', 'waspada', 'prokes']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['ansor', 'bagana', 'baris serba guna', 'tanggap', 'bencana', 'sulawesi', 'barat', 'bagi', 'masker', 'posko', 'ungsi', 'rangka', 'waspada', 'prokes']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3441,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17117</v>
+        <v>27886</v>
       </c>
       <c r="C75" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt keluarga besar nahdlatul ulama mengucapkan selamat dan sukses kepada gus yaqut cholil qoumas satu atas amanah</t>
+          <t>rt satu hari ini presiden menjadi yang pertama menerima vaksin covid selanjutnya sesuai kriteria kita semua akan menyu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'keluarga', 'besar', 'nahdlatul', 'ulama', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'atas', 'amanah']</t>
+          <t>['rt', 'satu', 'hari', 'ini', 'presiden', 'menjadi', 'yang', 'pertama', 'menerima', 'vaksin', 'covid', 'selanjutnya', 'sesuai', 'kriteria', 'kita', 'semua', 'akan', 'menyu']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'satu', 'hari', 'ini', 'presiden', 'menjadi', 'yang', 'pertama', 'menerima', 'vaksin', 'covid', 'selanjutnya', 'sesuai', 'kriteria', 'kita', 'semua', 'akan', 'menyu']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['keluarga', 'nahdlatul', 'ulama', 'selamat', 'sukses', 'gus', 'yaqut', 'cholil', 'qoumas', 'amanah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['keluarga', 'nahdlatul', 'ulama', 'selamat', 'sukses', 'gus', 'yaqut', 'cholil', 'qoumas', 'amanah']</t>
+          <t>['presiden', 'menerima', 'vaksin', 'covid', 'sesuai', 'kriteria', 'menyu']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['presiden', 'terima', 'vaksin', 'covid', 'sesuai', 'kriteria', 'menyu']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3482,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17118</v>
+        <v>27887</v>
       </c>
       <c r="C76" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt ansor jangan pernah bercitacita menjadi pemimpin atau memegang jabatan tapi siapkanlah diri kita saat kita dibutuhkan untuk</t>
+          <t>rt terima kasih untuk sahabat sahabat atas doa baiknya semoga allah swt menganugerahkan keberkahan yang sama untuk sahab</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'jangan', 'pernah', 'bercitacita', 'menjadi', 'pemimpin', 'atau', 'memegang', 'jabatan', 'tapi', 'siapkanlah', 'diri', 'kita', 'saat', 'kita', 'dibutuhkan', 'untuk']</t>
+          <t>['rt', 'terima', 'kasih', 'untuk', 'sahabat', 'sahabat', 'atas', 'doa', 'baiknya', 'semoga', 'allah', 'swt', 'menganugerahkan', 'keberkahan', 'yang', 'sama', 'untuk', 'sahab']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'untuk', 'sahabat', 'sahabat', 'atas', 'doa', 'baiknya', 'semoga', 'allah', 'subhanahu, wa, taala', 'menganugerahkan', 'keberkahan', 'yang', 'sama', 'untuk', 'sahab']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['ansor', 'bercitacita', 'pemimpin', 'memegang', 'jabatan', 'siapkanlah', 'dibutuhkan']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['ansor', 'bercitacita', 'pimpin', 'pegang', 'jabat', 'siap', 'butuh']</t>
+          <t>['terima', 'kasih', 'sahabat', 'sahabat', 'doa', 'baiknya', 'semoga', 'allah', 'subhanahu, wa, taala', 'menganugerahkan', 'keberkahan', 'sahab']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'sahabat', 'sahabat', 'doa', 'baik', 'moga', 'allah', 'subhanahu wa taala', 'anugerah', 'berkah', 'sahab']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3523,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17119</v>
+        <v>27888</v>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt ansor jajaran banser satkorcab demak melakukan kegiatan donor darah di kantor pcnu kabupaten demak dalam bingkai satkorcab de</t>
+          <t>selamat ultah ke gus ketum satu gus men selalu sehat berkah dan manfaat utk umat dan bangsa</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'jajaran', 'banser', 'satkorcab', 'demak', 'melakukan', 'kegiatan', 'donor', 'darah', 'di', 'kantor', 'pcnu', 'kabupaten', 'demak', 'dalam', 'bingkai', 'satkorcab', 'de']</t>
+          <t>['selamat', 'ultah', 'ke', 'gus', 'ketum', 'satu', 'gus', 'men', 'selalu', 'sehat', 'berkah', 'dan', 'manfaat', 'utk', 'umat', 'dan', 'bangsa']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['selamat', 'ulang, tahun', 'ke', 'gus', 'ketua, umum', 'satu', 'gus', 'men', 'selalu', 'sehat', 'berkah', 'dan', 'manfaat', 'untuk', 'umat', 'dan', 'bangsa']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['ansor', 'jajaran', 'banser', 'satkorcab', 'demak', 'kegiatan', 'donor', 'darah', 'kantor', 'pcnu', 'kabupaten', 'demak', 'bingkai', 'satkorcab', 'de']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['ansor', 'jajar', 'banser', 'satkorcab', 'demak', 'giat', 'donor', 'darah', 'kantor', 'pcnu', 'kabupaten', 'demak', 'bingkai', 'satkorcab', 'de']</t>
+          <t>['selamat', 'ulang, tahun', 'gus', 'ketua, umum', 'gus', 'men', 'sehat', 'berkah', 'manfaat', 'umat', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang tahun', 'gus', 'ketua umum', 'gus', 'men', 'sehat', 'berkah', 'manfaat', 'umat', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3564,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17120</v>
+        <v>27889</v>
       </c>
       <c r="C78" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt ada yang lebih bahaya dari kebodohan apa itu sok pintar dalam bahasa lain orang yang tidak tahu dirinya tidak tahu</t>
+          <t xml:space="preserve">rt tanpa lelah apalagi meneyerah gp ansor yakin akan ada hasil dengan adanya giat dan edukasi ini mari tetap jaga </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'yang', 'lebih', 'bahaya', 'dari', 'kebodohan', 'apa', 'itu', 'sok', 'pintar', 'dalam', 'bahasa', 'lain', 'orang', 'yang', 'tidak', 'tahu', 'dirinya', 'tidak', 'tahu']</t>
+          <t>['rt', 'tanpa', 'lelah', 'apalagi', 'meneyerah', 'gp', 'ansor', 'yakin', 'akan', 'ada', 'hasil', 'dengan', 'adanya', 'giat', 'dan', 'edukasi', 'ini', 'mari', 'tetap', 'jaga']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'tanpa', 'lelah', 'apalagi', 'meneyerah', 'gp', 'ansor', 'yakin', 'akan', 'ada', 'hasil', 'dengan', 'adanya', 'giat', 'dan', 'edukasi', 'ini', 'mari', 'tetap', 'jaga']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['bahaya', 'kebodohan', 'sok', 'pintar', 'bahasa', 'orang']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['bahaya', 'bodoh', 'sok', 'pintar', 'bahasa', 'orang']</t>
+          <t>['lelah', 'meneyerah', 'gp', 'ansor', 'hasil', 'giat', 'edukasi', 'mari', 'jaga']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['lelah', 'meneyerah', 'gp', 'ansor', 'hasil', 'giat', 'edukasi', 'mari', 'jaga']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3605,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17121</v>
+        <v>27890</v>
       </c>
       <c r="C79" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt ansor pembagian masker bersama ketua gugus tugas covid pp gp ansor faisal saimama dan pw gp ansor maluku di titik yakni</t>
+          <t>rt ansor ansor mengajak kepada kaderkader fpi untuk melanjutkan perjuangannya secara baik dengan berbagung di ormas islam yang</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'pembagian', 'masker', 'bersama', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'dan', 'pw', 'gp', 'ansor', 'maluku', 'di', 'titik', 'yakni']</t>
+          <t>['rt', 'ansor', 'ansor', 'mengajak', 'kepada', 'kaderkader', 'fpi', 'untuk', 'melanjutkan', 'perjuangannya', 'secara', 'baik', 'dengan', 'berbagung', 'di', 'ormas', 'islam', 'yang']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'ansor', 'mengajak', 'kepada', 'kaderkader', 'front, pembela, islam', 'untuk', 'melanjutkan', 'perjuangannya', 'secara', 'baik', 'dengan', 'berbagung', 'di', 'organisasi, masyarakat', 'islam', 'yang']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ansor', 'pembagian', 'masker', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'pw', 'gp', 'ansor', 'maluku', 'titik']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ansor', 'bagi', 'masker', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'pw', 'gp', 'ansor', 'malu', 'titik']</t>
+          <t>['ansor', 'ansor', 'mengajak', 'kaderkader', 'front, pembela, islam', 'melanjutkan', 'perjuangannya', 'berbagung', 'organisasi, masyarakat', 'islam']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ansor', 'ansor', 'ajak', 'kaderkader', 'front bela islam', 'lanjut', 'juang', 'berbagung', 'organisasi masyarakat', 'islam']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3646,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17122</v>
+        <v>27891</v>
       </c>
       <c r="C80" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt sukseskan pkd ke di babakan ciwaringin desember meneguhkan gp ansor dalam membela dan menjaga marwah</t>
+          <t>rt ansor gp ansor ajak eks fpi gabung ormas moderat seperti nu atau muhammadiyah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'sukseskan', 'pkd', 'ke', 'di', 'babakan', 'ciwaringin', 'desember', 'meneguhkan', 'gp', 'ansor', 'dalam', 'membela', 'dan', 'menjaga', 'marwah']</t>
+          <t>['rt', 'ansor', 'gp', 'ansor', 'ajak', 'eks', 'fpi', 'gabung', 'ormas', 'moderat', 'seperti', 'nu', 'atau', 'muhammadiyah']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'gp', 'ansor', 'ajak', 'eks', 'front, pembela, islam', 'gabung', 'organisasi, masyarakat', 'moderat', 'seperti', 'nu', 'atau', 'muhammadiyah']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['sukseskan', 'pkd', 'babakan', 'ciwaringin', 'desember', 'meneguhkan', 'gp', 'ansor', 'membela', 'menjaga', 'marwah']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['sukses', 'pkd', 'babakan', 'ciwaringin', 'desember', 'teguh', 'gp', 'ansor', 'bela', 'jaga', 'marwah']</t>
+          <t>['ansor', 'gp', 'ansor', 'ajak', 'eks', 'front, pembela, islam', 'gabung', 'organisasi, masyarakat', 'moderat', 'nu', 'muhammadiyah']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ansor', 'gp', 'ansor', 'ajak', 'eks', 'front bela islam', 'gabung', 'organisasi masyarakat', 'moderat', 'nu', 'muhammadiyah']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3687,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17123</v>
+        <v>27892</v>
       </c>
       <c r="C81" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt polri press release divisi humas polri terkait situasi kamtibmas terkini selasa desember</t>
+          <t>rt jika ada perbedaan pandangan termasuk dalam hal keagamaan maka harus diselesaikan dengan dialog ri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'polri', 'press', 'release', 'divisi', 'humas', 'polri', 'terkait', 'situasi', 'kamtibmas', 'terkini', 'selasa', 'desember']</t>
+          <t>['rt', 'jika', 'ada', 'perbedaan', 'pandangan', 'termasuk', 'dalam', 'hal', 'keagamaan', 'maka', 'harus', 'diselesaikan', 'dengan', 'dialog', 'ri']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'jika', 'ada', 'perbedaan', 'pandangan', 'termasuk', 'dalam', 'hal', 'keagamaan', 'maka', 'harus', 'diselesaikan', 'dengan', 'dialog', 'ri']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['polri', 'press', 'release', 'divisi', 'humas', 'polri', 'terkait', 'situasi', 'kamtibmas', 'terkini', 'selasa', 'desember']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['polri', 'press', 'release', 'divisi', 'humas', 'polri', 'kait', 'situasi', 'kamtibmas', 'kini', 'selasa', 'desember']</t>
+          <t>['perbedaan', 'pandangan', 'keagamaan', 'diselesaikan', 'dialog', 'ri']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['beda', 'pandang', 'agama', 'selesai', 'dialog', 'ri']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3728,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17124</v>
+        <v>27893</v>
       </c>
       <c r="C82" t="n">
-        <v>212</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>rt azyumardi semua pihak pemerintah aparat keamananpenegak hukum ormas dan warga wajib menjaga nkri tetap aman damai rukun dan</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'azyumardi', 'semua', 'pihak', 'pemerintah', 'aparat', 'keamananpenegak', 'hukum', 'ormas', 'dan', 'warga', 'wajib', 'menjaga', 'nkri', 'tetap', 'aman', 'damai', 'rukun', 'dan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['azyumardi', 'pemerintah', 'aparat', 'keamananpenegak', 'hukum', 'ormas', 'warga', 'wajib', 'menjaga', 'nkri', 'aman', 'damai', 'rukun']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['azyumardi', 'perintah', 'aparat', 'keamananpenegak', 'hukum', 'ormas', 'warga', 'wajib', 'jaga', 'nkri', 'aman', 'damai', 'rukun']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3765,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17125</v>
+        <v>27894</v>
       </c>
       <c r="C83" t="n">
-        <v>212</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>pasti polisilah</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['pasti', 'polisilah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['polisilah']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['polisi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3802,35 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17126</v>
+        <v>27895</v>
       </c>
       <c r="C84" t="n">
-        <v>212</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>rt semoga kita senantiasa akan mendapat rahmat dari allah dan syafaat dari rasulullah saw allahumma sholli al sayyidina</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'kita', 'senantiasa', 'akan', 'mendapat', 'rahmat', 'dari', 'allah', 'dan', 'syafaat', 'dari', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['semoga', 'senantiasa', 'rahmat', 'allah', 'syafaat', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['moga', 'senantiasa', 'rahmat', 'allah', 'syafaat', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3839,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17127</v>
+        <v>27896</v>
       </c>
       <c r="C85" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt pbnu kecam aksi teror di sigi</t>
+          <t>rt gus yaqut dianugerahi tokoh inspiratif millenial berkat kegigihan beliau merawat dan menjaga nkri yang saat ini rawan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'pbnu', 'kecam', 'aksi', 'teror', 'di', 'sigi']</t>
+          <t>['rt', 'gus', 'yaqut', 'dianugerahi', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'kegigihan', 'beliau', 'merawat', 'dan', 'menjaga', 'nkri', 'yang', 'saat', 'ini', 'rawan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'gus', 'yaqut', 'dianugerahi', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'kegigihan', 'beliau', 'merawat', 'dan', 'menjaga', 'negara, kesatuan, republik, indonesia', 'yang', 'saat', 'ini', 'rawan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['pbnu', 'kecam', 'aksi', 'teror', 'sigi']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['pbnu', 'kecam', 'aksi', 'teror', 'sigi']</t>
+          <t>['gus', 'yaqut', 'dianugerahi', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'kegigihan', 'beliau', 'merawat', 'menjaga', 'negara, kesatuan, republik, indonesia', 'rawan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['gus', 'yaqut', 'anugerah', 'tokoh', 'inspiratif', 'millenial', 'berkat', 'gigih', 'beliau', 'rawat', 'jaga', 'negara satu republik indonesia', 'rawan']</t>
         </is>
       </c>
     </row>
@@ -3459,30 +3880,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17128</v>
+        <v>27897</v>
       </c>
       <c r="C86" t="n">
-        <v>212</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>rt ansor ketua umum pimpinan pusat gerakan pemuda ansor gus yaqut mengucapkan selamat merayakan natal untuk saudaraku umat</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'ansor', 'ketua', 'umum', 'pimpinan', 'pusat', 'gerakan', 'pemuda', 'ansor', 'gus', 'yaqut', 'mengucapkan', 'selamat', 'merayakan', 'natal', 'untuk', 'saudaraku', 'umat']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'ketua', 'umum', 'pimpinan', 'pusat', 'gerakan', 'pemuda', 'ansor', 'gus', 'yaqut', 'mengucapkan', 'selamat', 'merayakan', 'natal', 'untuk', 'saudaraku', 'umat']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ansor', 'ketua', 'pimpinan', 'pusat', 'gerakan', 'pemuda', 'ansor', 'gus', 'yaqut', 'selamat', 'merayakan', 'natal', 'saudaraku', 'umat']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['ansor', 'ketua', 'pimpin', 'pusat', 'gera', 'pemuda', 'ansor', 'gus', 'yaqut', 'selamat', 'raya', 'natal', 'saudara', 'umat']</t>
         </is>
       </c>
     </row>
@@ -3491,30 +3921,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17129</v>
+        <v>27898</v>
       </c>
       <c r="C87" t="n">
-        <v>212</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>rt selamat bertugas gus mentri satu semoga amanah amp membanggakan cc att</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'selamat', 'bertugas', 'gus', 'mentri', 'satu', 'semoga', 'amanah', 'amp', 'membanggakan', 'cc', 'att']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'bertugas', 'gus', 'menteri', 'satu', 'semoga', 'amanah', 'amp', 'membanggakan', 'cc', 'att']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'bertugas', 'gus', 'menteri', 'semoga', 'amanah', 'membanggakan', 'cc', 'att']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['selamat', 'tugas', 'gus', 'menteri', 'moga', 'amanah', 'bangga', 'cc', 'att']</t>
         </is>
       </c>
     </row>
@@ -3523,30 +3962,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17130</v>
+        <v>27899</v>
       </c>
       <c r="C88" t="n">
-        <v>212</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>rt selamat sang pemberani satu presiden jokowi mengambil langkah tepat dengan mengangka</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'selamat', 'sang', 'pemberani', 'satu', 'presiden', 'jokowi', 'mengambil', 'langkah', 'tepat', 'dengan', 'mengangka']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'sang', 'pemberani', 'satu', 'presiden', 'jokowi', 'mengambil', 'langkah', 'tepat', 'dengan', 'mengangka']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['selamat', 'sang', 'pemberani', 'presiden', 'jokowi', 'mengambil', 'langkah', 'mengangka']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['selamat', 'sang', 'berani', 'presiden', 'jokowi', 'ambil', 'langkah', 'angka']</t>
         </is>
       </c>
     </row>
@@ -3555,30 +4003,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17131</v>
+        <v>27900</v>
       </c>
       <c r="C89" t="n">
-        <v>212</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>rt ansor mohon doa restu bapak ibu sekalian dan seluruh rakyat indonesia agar amanah ini bisa dilaksanakan dengan istiqomah dala</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'ansor', 'mohon', 'doa', 'restu', 'bapak', 'ibu', 'sekalian', 'dan', 'seluruh', 'rakyat', 'indonesia', 'agar', 'amanah', 'ini', 'bisa', 'dilaksanakan', 'dengan', 'istiqomah', 'dala']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'mohon', 'doa', 'restu', 'bapak', 'ibu', 'sekalian', 'dan', 'seluruh', 'rakyat', 'indonesia', 'agar', 'amanah', 'ini', 'bisa', 'dilaksanakan', 'dengan', 'istikamah', 'dala']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ansor', 'mohon', 'doa', 'restu', 'rakyat', 'indonesia', 'amanah', 'dilaksanakan', 'istikamah', 'dala']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['ansor', 'mohon', 'doa', 'restu', 'rakyat', 'indonesia', 'amanah', 'laksana', 'istikamah', 'dala']</t>
         </is>
       </c>
     </row>
@@ -3587,30 +4044,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17132</v>
+        <v>27901</v>
       </c>
       <c r="C90" t="n">
-        <v>212</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>rt keluarga besar nahdlatul ulama mengucapkan selamat dan sukses kepada gus yaqut cholil qoumas satu atas amanah</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'keluarga', 'besar', 'nahdlatul', 'ulama', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'atas', 'amanah']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'besar', 'nahdlatul', 'ulama', 'mengucapkan', 'selamat', 'dan', 'sukses', 'kepada', 'gus', 'yaqut', 'cholil', 'qoumas', 'satu', 'atas', 'amanah']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['keluarga', 'nahdlatul', 'ulama', 'selamat', 'sukses', 'gus', 'yaqut', 'cholil', 'qoumas', 'amanah']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['keluarga', 'nahdlatul', 'ulama', 'selamat', 'sukses', 'gus', 'yaqut', 'cholil', 'qoumas', 'amanah']</t>
         </is>
       </c>
     </row>
@@ -3619,34 +4085,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17133</v>
+        <v>27902</v>
       </c>
       <c r="C91" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>alfaatehah</t>
+          <t>rt ansor jangan pernah bercitacita menjadi pemimpin atau memegang jabatan tapi siapkanlah diri kita saat kita dibutuhkan untuk</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>['rt', 'ansor', 'jangan', 'pernah', 'bercitacita', 'menjadi', 'pemimpin', 'atau', 'memegang', 'jabatan', 'tapi', 'siapkanlah', 'diri', 'kita', 'saat', 'kita', 'dibutuhkan', 'untuk']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'jangan', 'pernah', 'bercitacita', 'menjadi', 'pemimpin', 'atau', 'memegang', 'jabatan', 'tapi', 'siapkanlah', 'diri', 'kita', 'saat', 'kita', 'dibutuhkan', 'untuk']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>['ansor', 'bercitacita', 'pemimpin', 'memegang', 'jabatan', 'siapkanlah', 'dibutuhkan']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['ansor', 'bercitacita', 'pimpin', 'pegang', 'jabat', 'siap', 'butuh']</t>
         </is>
       </c>
     </row>
@@ -3655,34 +4126,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17134</v>
+        <v>27903</v>
       </c>
       <c r="C92" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt ansor serah terima masker peduli merapi diy oleh gerakan pemuda ansor kerjasama dengan aice dan kantor staf presiden</t>
+          <t>rt ansor jajaran banser satkorcab demak melakukan kegiatan donor darah di kantor pcnu kabupaten demak dalam bingkai satkorcab de</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'serah', 'terima', 'masker', 'peduli', 'merapi', 'diy', 'oleh', 'gerakan', 'pemuda', 'ansor', 'kerjasama', 'dengan', 'aice', 'dan', 'kantor', 'staf', 'presiden']</t>
+          <t>['rt', 'ansor', 'jajaran', 'banser', 'satkorcab', 'demak', 'melakukan', 'kegiatan', 'donor', 'darah', 'di', 'kantor', 'pcnu', 'kabupaten', 'demak', 'dalam', 'bingkai', 'satkorcab', 'de']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'jajaran', 'barisan, serba, guna', 'satkorcab', 'demak', 'melakukan', 'kegiatan', 'donor', 'darah', 'di', 'kantor', 'pcnu', 'kabupaten', 'demak', 'dalam', 'bingkai', 'satkorcab', 'deh']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['ansor', 'serah', 'terima', 'masker', 'peduli', 'merapi', 'diy', 'gerakan', 'pemuda', 'ansor', 'kerjasama', 'aice', 'kantor', 'staf', 'presiden']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['ansor', 'serah', 'terima', 'masker', 'peduli', 'rapi', 'diy', 'gera', 'pemuda', 'ansor', 'kerjasama', 'aice', 'kantor', 'staf', 'presiden']</t>
+          <t>['ansor', 'jajaran', 'barisan, serba, guna', 'satkorcab', 'demak', 'kegiatan', 'donor', 'darah', 'kantor', 'pcnu', 'kabupaten', 'demak', 'bingkai', 'satkorcab', 'deh']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['ansor', 'jajar', 'baris serba guna', 'satkorcab', 'demak', 'giat', 'donor', 'darah', 'kantor', 'pcnu', 'kabupaten', 'demak', 'bingkai', 'satkorcab', 'deh']</t>
         </is>
       </c>
     </row>
@@ -3691,30 +4167,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17135</v>
+        <v>27904</v>
       </c>
       <c r="C93" t="n">
-        <v>212</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>rt ada yang lebih bahaya dari kebodohan apa itu sok pintar dalam bahasa lain orang yang tidak tahu dirinya tidak tahu</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'ada', 'yang', 'lebih', 'bahaya', 'dari', 'kebodohan', 'apa', 'itu', 'sok', 'pintar', 'dalam', 'bahasa', 'lain', 'orang', 'yang', 'tidak', 'tahu', 'dirinya', 'tidak', 'tahu']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'ada', 'yang', 'lebih', 'bahaya', 'dari', 'kebodohan', 'apa', 'itu', 'sok', 'pintar', 'dalam', 'bahasa', 'lain', 'orang', 'yang', 'tidak', 'tahu', 'dirinya', 'tidak', 'tahu']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bahaya', 'kebodohan', 'sok', 'pintar', 'bahasa', 'orang']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['bahaya', 'bodoh', 'sok', 'pintar', 'bahasa', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3723,34 +4208,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17136</v>
+        <v>27905</v>
       </c>
       <c r="C94" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt kalau ada ceramah mengatakan jangan salahkan umat islam kalau besok kepalanya dipenggal di jalan itu</t>
+          <t>rt ansor pembagian masker bersama ketua gugus tugas covid pp gp ansor faisal saimama dan pw gp ansor maluku di titik yakni</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'ada', 'ceramah', 'mengatakan', 'jangan', 'salahkan', 'umat', 'islam', 'kalau', 'besok', 'kepalanya', 'dipenggal', 'di', 'jalan', 'itu']</t>
+          <t>['rt', 'ansor', 'pembagian', 'masker', 'bersama', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'dan', 'pw', 'gp', 'ansor', 'maluku', 'di', 'titik', 'yakni']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'pembagian', 'masker', 'bersama', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'dan', 'pw', 'gp', 'ansor', 'maluku', 'di', 'titik', 'yakni']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['ceramah', 'salahkan', 'umat', 'islam', 'besok', 'kepalanya', 'dipenggal', 'jalan']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['ceramah', 'salah', 'umat', 'islam', 'besok', 'kepala', 'penggal', 'jalan']</t>
+          <t>['ansor', 'pembagian', 'masker', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'pw', 'gp', 'ansor', 'maluku', 'titik']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['ansor', 'bagi', 'masker', 'ketua', 'gugus', 'tugas', 'covid', 'pp', 'gp', 'ansor', 'faisal', 'saimama', 'pw', 'gp', 'ansor', 'malu', 'titik']</t>
         </is>
       </c>
     </row>
@@ -3759,34 +4249,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17137</v>
+        <v>27906</v>
       </c>
       <c r="C95" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt ini contoh ceramah yg brsifat mnantang amp berisi penuh kbencian amp prmusuhan yg bagi aparat psti hrs ditindak jika dibiarkan pr</t>
+          <t>rt sukseskan pkd ke di babakan ciwaringin desember meneguhkan gp ansor dalam membela dan menjaga marwah</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'contoh', 'ceramah', 'yg', 'brsifat', 'mnantang', 'amp', 'berisi', 'penuh', 'kbencian', 'amp', 'prmusuhan', 'yg', 'bagi', 'aparat', 'psti', 'hrs', 'ditindak', 'jika', 'dibiarkan', 'pr']</t>
+          <t>['rt', 'sukseskan', 'pkd', 'ke', 'di', 'babakan', 'ciwaringin', 'desember', 'meneguhkan', 'gp', 'ansor', 'dalam', 'membela', 'dan', 'menjaga', 'marwah']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'sukseskan', 'pkd', 'ke', 'di', 'babakan', 'ciwaringin', 'desember', 'meneguhkan', 'gp', 'ansor', 'dalam', 'membela', 'dan', 'menjaga', 'marwah']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['contoh', 'ceramah', 'brsifat', 'mnantang', 'berisi', 'penuh', 'kbencian', 'prmusuhan', 'aparat', 'psti', 'hrs', 'ditindak', 'dibiarkan', 'pr']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['contoh', 'ceramah', 'brsifat', 'mnantang', 'isi', 'penuh', 'kbencian', 'prmusuhan', 'aparat', 'psti', 'hrs', 'tindak', 'biar', 'pr']</t>
+          <t>['sukseskan', 'pkd', 'babakan', 'ciwaringin', 'desember', 'meneguhkan', 'gp', 'ansor', 'membela', 'menjaga', 'marwah']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['sukses', 'pkd', 'babakan', 'ciwaringin', 'desember', 'teguh', 'gp', 'ansor', 'bela', 'jaga', 'marwah']</t>
         </is>
       </c>
     </row>
@@ -3795,34 +4290,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17138</v>
+        <v>27907</v>
       </c>
       <c r="C96" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>alfaatehah</t>
+          <t>rt polri press release divisi humas polri terkait situasi kamtibmas terkini selasa desember</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>['rt', 'polri', 'press', 'release', 'divisi', 'humas', 'polri', 'terkait', 'situasi', 'kamtibmas', 'terkini', 'selasa', 'desember']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'kepolisian, republik, indonesia', 'press', 'release', 'divisi', 'humas', 'kepolisian, republik, indonesia', 'terkait', 'situasi', 'keamanan, dan, ketertiban, masyarakat', 'terkini', 'selasa', 'desember']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['alfaatehah']</t>
+          <t>['kepolisian, republik, indonesia', 'press', 'release', 'divisi', 'humas', 'kepolisian, republik, indonesia', 'terkait', 'situasi', 'keamanan, dan, ketertiban, masyarakat', 'terkini', 'selasa', 'desember']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'press', 'release', 'divisi', 'humas', 'polisi republik indonesia', 'kait', 'situasi', 'aman dan tertib masyarakat', 'kini', 'selasa', 'desember']</t>
         </is>
       </c>
     </row>
@@ -3831,34 +4331,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17139</v>
+        <v>27908</v>
       </c>
       <c r="C97" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>alfatehah</t>
+          <t>rt azyumardi semua pihak pemerintah aparat keamananpenegak hukum ormas dan warga wajib menjaga nkri tetap aman damai rukun dan</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['alfatehah']</t>
+          <t>['rt', 'azyumardi', 'semua', 'pihak', 'pemerintah', 'aparat', 'keamananpenegak', 'hukum', 'ormas', 'dan', 'warga', 'wajib', 'menjaga', 'nkri', 'tetap', 'aman', 'damai', 'rukun', 'dan']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'azyumardi', 'semua', 'pihak', 'pemerintah', 'aparat', 'keamananpenegak', 'hukum', 'organisasi, masyarakat', 'dan', 'warga', 'wajib', 'menjaga', 'negara, kesatuan, republik, indonesia', 'tetap', 'aman', 'damai', 'rukun', 'dan']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['alfatehah']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['alfatehah']</t>
+          <t>['azyumardi', 'pemerintah', 'aparat', 'keamananpenegak', 'hukum', 'organisasi, masyarakat', 'warga', 'wajib', 'menjaga', 'negara, kesatuan, republik, indonesia', 'aman', 'damai', 'rukun']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['azyumardi', 'perintah', 'aparat', 'keamananpenegak', 'hukum', 'organisasi masyarakat', 'warga', 'wajib', 'jaga', 'negara satu republik indonesia', 'aman', 'damai', 'rukun']</t>
         </is>
       </c>
     </row>
@@ -3867,34 +4372,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17140</v>
+        <v>27909</v>
       </c>
       <c r="C98" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt gini lho gugus tugas gp ansor penanganan covid membagikan puluhan ribu masker untuk mereka yang benar membutuhkan</t>
+          <t>pasti polisilah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'gini', 'lho', 'gugus', 'tugas', 'gp', 'ansor', 'penanganan', 'covid', 'membagikan', 'puluhan', 'ribu', 'masker', 'untuk', 'mereka', 'yang', 'benar', 'membutuhkan']</t>
+          <t>['pasti', 'polisilah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['pasti', 'polisilah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['gini', 'lho', 'gugus', 'tugas', 'gp', 'ansor', 'penanganan', 'covid', 'membagikan', 'puluhan', 'ribu', 'masker', 'membutuhkan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['gin', 'lho', 'gugus', 'tugas', 'gp', 'ansor', 'tangan', 'covid', 'bagi', 'puluh', 'ribu', 'masker', 'butuh']</t>
+          <t>['polisilah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['polisi']</t>
         </is>
       </c>
     </row>
@@ -3903,34 +4413,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17141</v>
+        <v>27910</v>
       </c>
       <c r="C99" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt parade merah putih ansor banser kabupaten banyumas dalam rangka memperingati hari pahlawan dengan longmarch memut</t>
+          <t>rt semoga kita senantiasa akan mendapat rahmat dari allah dan syafaat dari rasulullah saw allahumma sholli al sayyidina</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'parade', 'merah', 'putih', 'ansor', 'banser', 'kabupaten', 'banyumas', 'dalam', 'rangka', 'memperingati', 'hari', 'pahlawan', 'dengan', 'longmarch', 'memut']</t>
+          <t>['rt', 'semoga', 'kita', 'senantiasa', 'akan', 'mendapat', 'rahmat', 'dari', 'allah', 'dan', 'syafaat', 'dari', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'kita', 'senantiasa', 'akan', 'mendapat', 'rahmat', 'dari', 'allah', 'dan', 'syafaat', 'dari', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['parade', 'merah', 'putih', 'ansor', 'banser', 'kabupaten', 'banyumas', 'rangka', 'memperingati', 'pahlawan', 'longmarch', 'memut']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['parade', 'merah', 'putih', 'ansor', 'banser', 'kabupaten', 'banyumas', 'rangka', 'ingat', 'pahlawan', 'longmarch', 'memut']</t>
+          <t>['semoga', 'senantiasa', 'rahmat', 'allah', 'syafaat', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['moga', 'senantiasa', 'rahmat', 'allah', 'syafaat', 'rasulullah', 'saw', 'allahumma', 'sholli', 'al', 'sayyidina']</t>
         </is>
       </c>
     </row>
@@ -3939,34 +4454,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17142</v>
+        <v>27911</v>
       </c>
       <c r="C100" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt kalian sudah nggak peduli bahaya covid dan tak patuhi protokoler kesehatan gugus tugas gp ansor penanganan covid</t>
+          <t>rt pbnu kecam aksi teror di sigi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'kalian', 'sudah', 'nggak', 'peduli', 'bahaya', 'covid', 'dan', 'tak', 'patuhi', 'protokoler', 'kesehatan', 'gugus', 'tugas', 'gp', 'ansor', 'penanganan', 'covid']</t>
+          <t>['rt', 'pbnu', 'kecam', 'aksi', 'teror', 'di', 'sigi']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'pengurus, besar, nahdlatul, ulama', 'kecam', 'aksi', 'teror', 'di', 'sigi']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['nggak', 'peduli', 'bahaya', 'covid', 'patuhi', 'protokoler', 'kesehatan', 'gugus', 'tugas', 'gp', 'ansor', 'penanganan', 'covid']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['nggak', 'peduli', 'bahaya', 'covid', 'patuh', 'protokoler', 'sehat', 'gugus', 'tugas', 'gp', 'ansor', 'tangan', 'covid']</t>
+          <t>['pengurus, besar, nahdlatul, ulama', 'kecam', 'aksi', 'teror', 'sigi']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['urus besar nahdlatul ulama', 'kecam', 'aksi', 'teror', 'sigi']</t>
         </is>
       </c>
     </row>
@@ -3975,34 +4495,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17143</v>
+        <v>27912</v>
       </c>
       <c r="C101" t="n">
-        <v>212</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>rt ansor giat bhakti sosial satkoryon banser pac gp ansor nawangan bersama koramil nawangan dan warga masyarakat pakis baru di</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'giat', 'bhakti', 'sosial', 'satkoryon', 'banser', 'pac', 'gp', 'ansor', 'nawangan', 'bersama', 'koramil', 'nawangan', 'dan', 'warga', 'masyarakat', 'pakis', 'baru', 'di']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['ansor', 'giat', 'bhakti', 'sosial', 'satkoryon', 'banser', 'pac', 'gp', 'ansor', 'nawangan', 'koramil', 'nawangan', 'warga', 'masyarakat', 'pakis']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['ansor', 'giat', 'bhakti', 'sosial', 'satkoryon', 'banser', 'pac', 'gp', 'ansor', 'nawangan', 'koramil', 'nawangan', 'warga', 'masyarakat', 'pakis']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
